--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$V$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$W$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -609,16 +609,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -23575,14 +23593,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="K119" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="8.26953125" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="10"/>
+    <col min="2" max="23" width="8.26953125" style="10" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23597,7 +23615,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23608,7 +23626,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23642,6 +23660,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23709,6 +23728,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23781,7 +23803,9 @@
       <c r="V12" s="8">
         <v>11159.628388178311</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>22163.873082565286</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23923,7 +23947,9 @@
       <c r="V13" s="8">
         <v>22534.051408149389</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>37324.820807194832</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24065,7 +24091,9 @@
       <c r="V14" s="8">
         <v>31264.676418929517</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>33045.014205261687</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24207,7 +24235,9 @@
       <c r="V15" s="8">
         <v>20040.638347658809</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="8">
+        <v>31988.698465515361</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24349,7 +24379,9 @@
       <c r="V16" s="8">
         <v>8848.7983486323574</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="8">
+        <v>10061.31099343922</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24491,7 +24523,9 @@
       <c r="V17" s="8">
         <v>42190.811854129184</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="8">
+        <v>45281.899202322238</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24730,7 +24764,9 @@
       <c r="V19" s="12">
         <v>136038.60476567756</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="12">
+        <v>179865.61675629864</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -24828,6 +24864,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
@@ -25040,7 +25077,7 @@
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25051,7 +25088,7 @@
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25085,6 +25122,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -25152,6 +25190,9 @@
       </c>
       <c r="V33" s="15">
         <v>2020</v>
+      </c>
+      <c r="W33" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="34" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25224,7 +25265,9 @@
       <c r="V35" s="8">
         <v>20316.22665008832</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="8">
+        <v>20451.535199852886</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25366,7 +25409,9 @@
       <c r="V36" s="8">
         <v>33324.731445327598</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="8">
+        <v>29185.500076991768</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25508,7 +25553,9 @@
       <c r="V37" s="8">
         <v>18554.62118919487</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="8">
+        <v>20036.891123130354</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -25650,7 +25697,9 @@
       <c r="V38" s="8">
         <v>19383.933113349027</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="8">
+        <v>22419.518681449888</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25792,7 +25841,9 @@
       <c r="V39" s="8">
         <v>7446.2065219921587</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="8">
+        <v>5731.093377169319</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -25934,7 +25985,9 @@
       <c r="V40" s="8">
         <v>37914.202234481207</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="8">
+        <v>42681.073001836747</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -26031,7 +26084,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="9"/>
+      <c r="W41" s="12"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -26173,7 +26226,9 @@
       <c r="V42" s="12">
         <v>136939.92115443316</v>
       </c>
-      <c r="W42" s="9"/>
+      <c r="W42" s="12">
+        <v>140505.61146043096</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -26271,6 +26326,7 @@
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
@@ -26483,7 +26539,7 @@
     </row>
     <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26494,7 +26550,7 @@
     </row>
     <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26527,6 +26583,8 @@
       <c r="S55" s="16"/>
       <c r="T55" s="16"/>
       <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
     </row>
     <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -26590,8 +26648,12 @@
         <v>18</v>
       </c>
       <c r="U56" s="17" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="V56" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="W56" s="17"/>
     </row>
     <row r="57" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
@@ -26660,8 +26722,10 @@
       <c r="U58" s="18">
         <v>-34.089069157536713</v>
       </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="9"/>
+      <c r="V58" s="18">
+        <v>98.607626630686553</v>
+      </c>
+      <c r="W58" s="18"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -26794,8 +26858,10 @@
       <c r="U59" s="18">
         <v>-39.591487077309459</v>
       </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="9"/>
+      <c r="V59" s="18">
+        <v>65.637417484972957</v>
+      </c>
+      <c r="W59" s="18"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -26928,8 +26994,10 @@
       <c r="U60" s="18">
         <v>16.355035227668751</v>
       </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="9"/>
+      <c r="V60" s="18">
+        <v>5.6944065643815378</v>
+      </c>
+      <c r="W60" s="18"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -27062,8 +27130,10 @@
       <c r="U61" s="18">
         <v>5.0453788198012717E-3</v>
       </c>
-      <c r="V61" s="1"/>
-      <c r="W61" s="9"/>
+      <c r="V61" s="18">
+        <v>59.619159382976193</v>
+      </c>
+      <c r="W61" s="18"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -27196,8 +27266,10 @@
       <c r="U62" s="18">
         <v>-13.487005510479548</v>
       </c>
-      <c r="V62" s="1"/>
-      <c r="W62" s="9"/>
+      <c r="V62" s="18">
+        <v>13.702568383132657</v>
+      </c>
+      <c r="W62" s="18"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -27330,8 +27402,10 @@
       <c r="U63" s="18">
         <v>-16.095354643183995</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="9"/>
+      <c r="V63" s="18">
+        <v>7.3264467128060886</v>
+      </c>
+      <c r="W63" s="18"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -27421,7 +27495,7 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-      <c r="V64" s="1"/>
+      <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -27555,8 +27629,10 @@
       <c r="U65" s="18">
         <v>-15.84705126115152</v>
       </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="9"/>
+      <c r="V65" s="18">
+        <v>32.216599152947651</v>
+      </c>
+      <c r="W65" s="18"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -27647,6 +27723,8 @@
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
     </row>
     <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -27674,7 +27752,7 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-      <c r="V68" s="1"/>
+      <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -27765,7 +27843,7 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-      <c r="V69" s="1"/>
+      <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -27847,7 +27925,7 @@
     </row>
     <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27858,7 +27936,7 @@
     </row>
     <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -27891,6 +27969,8 @@
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
       <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
     </row>
     <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
@@ -27954,8 +28034,12 @@
         <v>18</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="V79" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W79" s="6"/>
     </row>
     <row r="80" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
@@ -28024,8 +28108,10 @@
       <c r="U81" s="18">
         <v>-13.438950187155797</v>
       </c>
-      <c r="V81" s="1"/>
-      <c r="W81" s="9"/>
+      <c r="V81" s="18">
+        <v>0.66601220834469643</v>
+      </c>
+      <c r="W81" s="18"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -28158,8 +28244,10 @@
       <c r="U82" s="18">
         <v>-17.213454090970217</v>
       </c>
-      <c r="V82" s="1"/>
-      <c r="W82" s="9"/>
+      <c r="V82" s="18">
+        <v>-12.420899400574712</v>
+      </c>
+      <c r="W82" s="18"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -28292,8 +28380,10 @@
       <c r="U83" s="18">
         <v>-24.186574765980211</v>
       </c>
-      <c r="V83" s="1"/>
-      <c r="W83" s="9"/>
+      <c r="V83" s="18">
+        <v>7.9886833518254292</v>
+      </c>
+      <c r="W83" s="18"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
@@ -28426,8 +28516,10 @@
       <c r="U84" s="18">
         <v>-3.0729632464783947</v>
       </c>
-      <c r="V84" s="1"/>
-      <c r="W84" s="9"/>
+      <c r="V84" s="18">
+        <v>15.660318008476622</v>
+      </c>
+      <c r="W84" s="18"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -28560,8 +28652,10 @@
       <c r="U85" s="18">
         <v>-31.05831395920022</v>
       </c>
-      <c r="V85" s="1"/>
-      <c r="W85" s="9"/>
+      <c r="V85" s="18">
+        <v>-23.033381356766043</v>
+      </c>
+      <c r="W85" s="18"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -28694,8 +28788,10 @@
       <c r="U86" s="18">
         <v>-23.957984683812768</v>
       </c>
-      <c r="V86" s="1"/>
-      <c r="W86" s="9"/>
+      <c r="V86" s="18">
+        <v>12.572784039803153</v>
+      </c>
+      <c r="W86" s="18"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -28785,7 +28881,7 @@
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
-      <c r="V87" s="1"/>
+      <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -28919,8 +29015,10 @@
       <c r="U88" s="18">
         <v>-18.901846826237019</v>
       </c>
-      <c r="V88" s="1"/>
-      <c r="W88" s="9"/>
+      <c r="V88" s="18">
+        <v>2.6038355184801105</v>
+      </c>
+      <c r="W88" s="18"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -29011,6 +29109,8 @@
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
     </row>
     <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
@@ -29212,7 +29312,7 @@
     </row>
     <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29223,7 +29323,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -29257,6 +29357,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
@@ -29324,6 +29425,9 @@
       </c>
       <c r="V101" s="15">
         <v>2020</v>
+      </c>
+      <c r="W101" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="102" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29396,7 +29500,9 @@
       <c r="V103" s="19">
         <v>54.929631276434876</v>
       </c>
-      <c r="W103" s="9"/>
+      <c r="W103" s="19">
+        <v>108.37266183677359</v>
+      </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
@@ -29538,7 +29644,9 @@
       <c r="V104" s="19">
         <v>67.619603912243534</v>
       </c>
-      <c r="W104" s="9"/>
+      <c r="W104" s="19">
+        <v>127.88823459845273</v>
+      </c>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
@@ -29680,7 +29788,9 @@
       <c r="V105" s="19">
         <v>168.50075299374069</v>
       </c>
-      <c r="W105" s="9"/>
+      <c r="W105" s="19">
+        <v>164.92086522901204</v>
+      </c>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
@@ -29822,7 +29932,9 @@
       <c r="V106" s="19">
         <v>103.38788433941475</v>
       </c>
-      <c r="W106" s="9"/>
+      <c r="W106" s="19">
+        <v>142.68236049145472</v>
+      </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -29964,7 +30076,9 @@
       <c r="V107" s="19">
         <v>118.83632722914257</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="W107" s="19">
+        <v>175.55657064531491</v>
+      </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -30106,7 +30220,9 @@
       <c r="V108" s="19">
         <v>111.27970356121222</v>
       </c>
-      <c r="W108" s="9"/>
+      <c r="W108" s="19">
+        <v>106.0936289028478</v>
+      </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -30345,7 +30461,9 @@
       <c r="V110" s="19">
         <v>99.341816191248469</v>
       </c>
-      <c r="W110" s="9"/>
+      <c r="W110" s="19">
+        <v>128.01311982258602</v>
+      </c>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -30443,6 +30561,7 @@
       <c r="T111" s="13"/>
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
+      <c r="W111" s="13"/>
     </row>
     <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
@@ -30461,7 +30580,7 @@
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -30472,7 +30591,7 @@
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30506,6 +30625,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
       <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -30573,6 +30693,9 @@
       </c>
       <c r="V124" s="15">
         <v>2020</v>
+      </c>
+      <c r="W124" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="125" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30645,7 +30768,9 @@
       <c r="V126" s="19">
         <v>8.2032805374624633</v>
       </c>
-      <c r="W126" s="9"/>
+      <c r="W126" s="19">
+        <v>12.322462448504149</v>
+      </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -30787,7 +30912,9 @@
       <c r="V127" s="19">
         <v>16.564453485070374</v>
       </c>
-      <c r="W127" s="9"/>
+      <c r="W127" s="19">
+        <v>20.75150408416664</v>
+      </c>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
@@ -30929,7 +31056,9 @@
       <c r="V128" s="19">
         <v>22.982208963979005</v>
       </c>
-      <c r="W128" s="9"/>
+      <c r="W128" s="19">
+        <v>18.372057317677697</v>
+      </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -31071,7 +31200,9 @@
       <c r="V129" s="19">
         <v>14.731581805163477</v>
       </c>
-      <c r="W129" s="9"/>
+      <c r="W129" s="19">
+        <v>17.784776791918549</v>
+      </c>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
@@ -31213,7 +31344,9 @@
       <c r="V130" s="19">
         <v>6.5046229810090654</v>
       </c>
-      <c r="W130" s="9"/>
+      <c r="W130" s="19">
+        <v>5.59379339691775</v>
+      </c>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
@@ -31355,7 +31488,9 @@
       <c r="V131" s="19">
         <v>31.013852227315621</v>
       </c>
-      <c r="W131" s="9"/>
+      <c r="W131" s="19">
+        <v>25.175405960815205</v>
+      </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -31594,7 +31729,9 @@
       <c r="V133" s="19">
         <v>100</v>
       </c>
-      <c r="W133" s="9"/>
+      <c r="W133" s="19">
+        <v>100</v>
+      </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -31692,6 +31829,7 @@
       <c r="T134" s="13"/>
       <c r="U134" s="13"/>
       <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
     </row>
     <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -31904,7 +32042,7 @@
     </row>
     <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31915,7 +32053,7 @@
     </row>
     <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -31949,6 +32087,7 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
     </row>
     <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
@@ -32016,6 +32155,9 @@
       </c>
       <c r="V147" s="15">
         <v>2020</v>
+      </c>
+      <c r="W147" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="148" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32088,7 +32230,9 @@
       <c r="V149" s="19">
         <v>14.835868517243281</v>
       </c>
-      <c r="W149" s="9"/>
+      <c r="W149" s="19">
+        <v>14.555671469115969</v>
+      </c>
       <c r="X149" s="9"/>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
@@ -32230,7 +32374,9 @@
       <c r="V150" s="19">
         <v>24.335293290950442</v>
       </c>
-      <c r="W150" s="9"/>
+      <c r="W150" s="19">
+        <v>20.771768311339621</v>
+      </c>
       <c r="X150" s="9"/>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
@@ -32372,7 +32518,9 @@
       <c r="V151" s="19">
         <v>13.549460984624059</v>
       </c>
-      <c r="W151" s="9"/>
+      <c r="W151" s="19">
+        <v>14.260562916217138</v>
+      </c>
       <c r="X151" s="9"/>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
@@ -32514,7 +32662,9 @@
       <c r="V152" s="19">
         <v>14.155063731553428</v>
       </c>
-      <c r="W152" s="9"/>
+      <c r="W152" s="19">
+        <v>15.956315515386835</v>
+      </c>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -32656,7 +32806,9 @@
       <c r="V153" s="19">
         <v>5.4375717900368468</v>
       </c>
-      <c r="W153" s="9"/>
+      <c r="W153" s="19">
+        <v>4.0789071109685207</v>
+      </c>
       <c r="X153" s="9"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -32798,7 +32950,9 @@
       <c r="V154" s="19">
         <v>27.686741685591958</v>
       </c>
-      <c r="W154" s="9"/>
+      <c r="W154" s="19">
+        <v>30.37677467697192</v>
+      </c>
       <c r="X154" s="9"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
@@ -33037,7 +33191,9 @@
       <c r="V156" s="19">
         <v>100</v>
       </c>
-      <c r="W156" s="9"/>
+      <c r="W156" s="19">
+        <v>100</v>
+      </c>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -33135,6 +33291,7 @@
       <c r="T157" s="13"/>
       <c r="U157" s="13"/>
       <c r="V157" s="13"/>
+      <c r="W157" s="13"/>
     </row>
     <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
@@ -33338,14 +33495,24 @@
       <c r="CR160" s="20"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V103:V110 V58:V63 V65 V81:V86 V88">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W81:W86 W88 W103:W110 W58:W63 W65">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="21" man="1"/>
-    <brk id="92" max="21" man="1"/>
-    <brk id="114" max="21" man="1"/>
+    <brk id="46" max="22" man="1"/>
+    <brk id="92" max="22" man="1"/>
+    <brk id="114" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430C054-9819-44AA-BA71-B3F06C52B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -615,19 +616,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -758,9 +759,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -23584,7 +23585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23593,7 +23594,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23615,7 +23616,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23626,7 +23627,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23801,10 +23802,10 @@
         <v>16931.377308039308</v>
       </c>
       <c r="V12" s="8">
-        <v>11159.628388178311</v>
+        <v>11157.208665220212</v>
       </c>
       <c r="W12" s="8">
-        <v>22163.873082565286</v>
+        <v>23684.634802827146</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23948,7 +23949,7 @@
         <v>22534.051408149389</v>
       </c>
       <c r="W13" s="8">
-        <v>37324.820807194832</v>
+        <v>35193.178733529494</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24089,10 +24090,10 @@
         <v>26870.067425749792</v>
       </c>
       <c r="V14" s="8">
-        <v>31264.676418929517</v>
+        <v>32253.968146672865</v>
       </c>
       <c r="W14" s="8">
-        <v>33045.014205261687</v>
+        <v>36906.68025046782</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -24233,10 +24234,10 @@
         <v>20039.627272548834</v>
       </c>
       <c r="V15" s="8">
-        <v>20040.638347658809</v>
+        <v>20067.337853494366</v>
       </c>
       <c r="W15" s="8">
-        <v>31988.698465515361</v>
+        <v>33652.598592090835</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -24377,10 +24378,10 @@
         <v>10228.288132720034</v>
       </c>
       <c r="V16" s="8">
-        <v>8848.7983486323574</v>
+        <v>8848.7349892645889</v>
       </c>
       <c r="W16" s="8">
-        <v>10061.31099343922</v>
+        <v>10801.145916399586</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -24521,10 +24522,10 @@
         <v>50284.238345453909</v>
       </c>
       <c r="V17" s="8">
-        <v>42190.811854129184</v>
+        <v>42199.014261590368</v>
       </c>
       <c r="W17" s="8">
-        <v>45281.899202322238</v>
+        <v>45045.781303645817</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -24762,10 +24763,10 @@
         <v>161656.37307356353</v>
       </c>
       <c r="V19" s="12">
-        <v>136038.60476567756</v>
+        <v>137060.31532439179</v>
       </c>
       <c r="W19" s="12">
-        <v>179865.61675629864</v>
+        <v>185284.01959896067</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -25077,7 +25078,7 @@
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25088,7 +25089,7 @@
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25263,10 +25264,10 @@
         <v>23470.402327622571</v>
       </c>
       <c r="V35" s="8">
-        <v>20316.22665008832</v>
+        <v>20310.319988928815</v>
       </c>
       <c r="W35" s="8">
-        <v>20451.535199852886</v>
+        <v>21675.00051567312</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -25410,7 +25411,7 @@
         <v>33324.731445327598</v>
       </c>
       <c r="W36" s="8">
-        <v>29185.500076991768</v>
+        <v>28328.670091842152</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -25551,10 +25552,10 @@
         <v>24474.05737429846</v>
       </c>
       <c r="V37" s="8">
-        <v>18554.62118919487</v>
+        <v>19031.183267777338</v>
       </c>
       <c r="W37" s="8">
-        <v>20036.891123130354</v>
+        <v>22390.637473111659</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -25695,10 +25696,10 @@
         <v>19998.479023598913</v>
       </c>
       <c r="V38" s="8">
-        <v>19383.933113349027</v>
+        <v>19458.476814154001</v>
       </c>
       <c r="W38" s="8">
-        <v>22419.518681449888</v>
+        <v>23505.305804270618</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -25839,10 +25840,10 @@
         <v>10800.731675731697</v>
       </c>
       <c r="V39" s="8">
-        <v>7446.2065219921587</v>
+        <v>7446.1502766041913</v>
       </c>
       <c r="W39" s="8">
-        <v>5731.093377169319</v>
+        <v>5946.4804739473802</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -25983,10 +25984,10 @@
         <v>49859.544196496761</v>
       </c>
       <c r="V40" s="8">
-        <v>37914.202234481207</v>
+        <v>37922.163340137951</v>
       </c>
       <c r="W40" s="8">
-        <v>42681.073001836747</v>
+        <v>42584.941842378394</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -26224,10 +26225,10 @@
         <v>168857.01559815079</v>
       </c>
       <c r="V42" s="12">
-        <v>136939.92115443316</v>
+        <v>137493.02513292991</v>
       </c>
       <c r="W42" s="12">
-        <v>140505.61146043096</v>
+        <v>144431.03620122332</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -26539,7 +26540,7 @@
     </row>
     <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26550,7 +26551,7 @@
     </row>
     <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26720,10 +26721,10 @@
         <v>-19.621271347051888</v>
       </c>
       <c r="U58" s="18">
-        <v>-34.089069157536713</v>
+        <v>-34.103360510886617</v>
       </c>
       <c r="V58" s="18">
-        <v>98.607626630686553</v>
+        <v>112.28100606075452</v>
       </c>
       <c r="W58" s="18"/>
       <c r="X58" s="9"/>
@@ -26859,7 +26860,7 @@
         <v>-39.591487077309459</v>
       </c>
       <c r="V59" s="18">
-        <v>65.637417484972957</v>
+        <v>56.177768906668774</v>
       </c>
       <c r="W59" s="18"/>
       <c r="X59" s="9"/>
@@ -26992,10 +26993,10 @@
         <v>7.1752718832464666</v>
       </c>
       <c r="U60" s="18">
-        <v>16.355035227668751</v>
+        <v>20.036796468041757</v>
       </c>
       <c r="V60" s="18">
-        <v>5.6944065643815378</v>
+        <v>14.425239346169889</v>
       </c>
       <c r="W60" s="18"/>
       <c r="X60" s="9"/>
@@ -27128,10 +27129,10 @@
         <v>12.964211328140323</v>
       </c>
       <c r="U61" s="18">
-        <v>5.0453788198012717E-3</v>
+        <v>0.13827892389738849</v>
       </c>
       <c r="V61" s="18">
-        <v>59.619159382976193</v>
+        <v>67.698370545103671</v>
       </c>
       <c r="W61" s="18"/>
       <c r="X61" s="9"/>
@@ -27264,10 +27265,10 @@
         <v>-7.9200328196530165</v>
       </c>
       <c r="U62" s="18">
-        <v>-13.487005510479548</v>
+        <v>-13.487624962795977</v>
       </c>
       <c r="V62" s="18">
-        <v>13.702568383132657</v>
+        <v>22.064294269222543</v>
       </c>
       <c r="W62" s="18"/>
       <c r="X62" s="9"/>
@@ -27400,10 +27401,10 @@
         <v>1.3324147689988735</v>
       </c>
       <c r="U63" s="18">
-        <v>-16.095354643183995</v>
+        <v>-16.07904255865995</v>
       </c>
       <c r="V63" s="18">
-        <v>7.3264467128060886</v>
+        <v>6.7460510437718568</v>
       </c>
       <c r="W63" s="18"/>
       <c r="X63" s="9"/>
@@ -27627,10 +27628,10 @@
         <v>-1.0201384556127522</v>
       </c>
       <c r="U65" s="18">
-        <v>-15.84705126115152</v>
+        <v>-15.215025106358809</v>
       </c>
       <c r="V65" s="18">
-        <v>32.216599152947651</v>
+        <v>35.184293980671157</v>
       </c>
       <c r="W65" s="18"/>
       <c r="X65" s="9"/>
@@ -27925,7 +27926,7 @@
     </row>
     <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27936,7 +27937,7 @@
     </row>
     <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28106,10 +28107,10 @@
         <v>11.421597058837293</v>
       </c>
       <c r="U81" s="18">
-        <v>-13.438950187155797</v>
+        <v>-13.464116611987592</v>
       </c>
       <c r="V81" s="18">
-        <v>0.66601220834469643</v>
+        <v>6.7191483319228666</v>
       </c>
       <c r="W81" s="18"/>
       <c r="X81" s="9"/>
@@ -28245,7 +28246,7 @@
         <v>-17.213454090970217</v>
       </c>
       <c r="V82" s="18">
-        <v>-12.420899400574712</v>
+        <v>-14.992052859246471</v>
       </c>
       <c r="W82" s="18"/>
       <c r="X82" s="9"/>
@@ -28378,10 +28379,10 @@
         <v>-2.3815715972876177</v>
       </c>
       <c r="U83" s="18">
-        <v>-24.186574765980211</v>
+        <v>-22.239361554480055</v>
       </c>
       <c r="V83" s="18">
-        <v>7.9886833518254292</v>
+        <v>17.652366424437645</v>
       </c>
       <c r="W83" s="18"/>
       <c r="X83" s="9"/>
@@ -28514,10 +28515,10 @@
         <v>12.732256939620854</v>
       </c>
       <c r="U84" s="18">
-        <v>-3.0729632464783947</v>
+        <v>-2.7002163954953318</v>
       </c>
       <c r="V84" s="18">
-        <v>15.660318008476622</v>
+        <v>20.797254732564554</v>
       </c>
       <c r="W84" s="18"/>
       <c r="X84" s="9"/>
@@ -28650,10 +28651,10 @@
         <v>-2.7666208342695029</v>
       </c>
       <c r="U85" s="18">
-        <v>-31.05831395920022</v>
+        <v>-31.058834714549548</v>
       </c>
       <c r="V85" s="18">
-        <v>-23.033381356766043</v>
+        <v>-20.140203285565889</v>
       </c>
       <c r="W85" s="18"/>
       <c r="X85" s="9"/>
@@ -28786,10 +28787,10 @@
         <v>0.47657434925463349</v>
       </c>
       <c r="U86" s="18">
-        <v>-23.957984683812768</v>
+        <v>-23.942017619161376</v>
       </c>
       <c r="V86" s="18">
-        <v>12.572784039803153</v>
+        <v>12.295655341226848</v>
       </c>
       <c r="W86" s="18"/>
       <c r="X86" s="9"/>
@@ -29013,10 +29014,10 @@
         <v>3.388710923866654</v>
       </c>
       <c r="U88" s="18">
-        <v>-18.901846826237019</v>
+        <v>-18.57428923170211</v>
       </c>
       <c r="V88" s="18">
-        <v>2.6038355184801105</v>
+        <v>5.0460822005957482</v>
       </c>
       <c r="W88" s="18"/>
       <c r="X88" s="9"/>
@@ -29312,7 +29313,7 @@
     </row>
     <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -29323,7 +29324,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -29498,10 +29499,10 @@
         <v>72.139271716329233</v>
       </c>
       <c r="V103" s="19">
-        <v>54.929631276434876</v>
+        <v>54.933692188513149</v>
       </c>
       <c r="W103" s="19">
-        <v>108.37266183677359</v>
+        <v>109.27166892430229</v>
       </c>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
@@ -29645,7 +29646,7 @@
         <v>67.619603912243534</v>
       </c>
       <c r="W104" s="19">
-        <v>127.88823459845273</v>
+        <v>124.23166572745016</v>
       </c>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
@@ -29786,10 +29787,10 @@
         <v>109.78999932380444</v>
       </c>
       <c r="V105" s="19">
-        <v>168.50075299374069</v>
+        <v>169.47957303991546</v>
       </c>
       <c r="W105" s="19">
-        <v>164.92086522901204</v>
+        <v>164.83085975014379</v>
       </c>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
@@ -29930,10 +29931,10 @@
         <v>100.20575689231848</v>
       </c>
       <c r="V106" s="19">
-        <v>103.38788433941475</v>
+        <v>103.12902723658968</v>
       </c>
       <c r="W106" s="19">
-        <v>142.68236049145472</v>
+        <v>143.17022238432898</v>
       </c>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
@@ -30074,10 +30075,10 @@
         <v>94.69995589004499</v>
       </c>
       <c r="V107" s="19">
-        <v>118.83632722914257</v>
+        <v>118.83637397256565</v>
       </c>
       <c r="W107" s="19">
-        <v>175.55657064531491</v>
+        <v>181.63930687608214</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
@@ -30218,10 +30219,10 @@
         <v>100.85178104974932</v>
       </c>
       <c r="V108" s="19">
-        <v>111.27970356121222</v>
+        <v>111.27797188966187</v>
       </c>
       <c r="W108" s="19">
-        <v>106.0936289028478</v>
+        <v>105.77866108253909</v>
       </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
@@ -30459,10 +30460,10 @@
         <v>95.735656881604797</v>
       </c>
       <c r="V110" s="19">
-        <v>99.341816191248469</v>
+        <v>99.685285993147815</v>
       </c>
       <c r="W110" s="19">
-        <v>128.01311982258602</v>
+        <v>128.28546029457297</v>
       </c>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
@@ -30580,7 +30581,7 @@
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -30591,7 +30592,7 @@
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30766,10 +30767,10 @@
         <v>10.473683768925396</v>
       </c>
       <c r="V126" s="19">
-        <v>8.2032805374624633</v>
+        <v>8.1403640716961281</v>
       </c>
       <c r="W126" s="19">
-        <v>12.322462448504149</v>
+        <v>12.782880495625864</v>
       </c>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
@@ -30910,10 +30911,10 @@
         <v>23.075350436123301</v>
       </c>
       <c r="V127" s="19">
-        <v>16.564453485070374</v>
+        <v>16.440974438747073</v>
       </c>
       <c r="W127" s="19">
-        <v>20.75150408416664</v>
+        <v>18.994179211841164</v>
       </c>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
@@ -31054,10 +31055,10 @@
         <v>16.62171859659518</v>
       </c>
       <c r="V128" s="19">
-        <v>22.982208963979005</v>
+        <v>23.532681995028813</v>
       </c>
       <c r="W128" s="19">
-        <v>18.372057317677697</v>
+        <v>19.918976461300197</v>
       </c>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
@@ -31198,10 +31199,10 @@
         <v>12.396435037812941</v>
       </c>
       <c r="V129" s="19">
-        <v>14.731581805163477</v>
+        <v>14.641245940518498</v>
       </c>
       <c r="W129" s="19">
-        <v>17.784776791918549</v>
+        <v>18.16270969559622</v>
       </c>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
@@ -31342,10 +31343,10 @@
         <v>6.3271790268766805</v>
       </c>
       <c r="V130" s="19">
-        <v>6.5046229810090654</v>
+        <v>6.4560883055912788</v>
       </c>
       <c r="W130" s="19">
-        <v>5.59379339691775</v>
+        <v>5.8295075526633138</v>
       </c>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
@@ -31486,10 +31487,10 @@
         <v>31.105633133666501</v>
       </c>
       <c r="V131" s="19">
-        <v>31.013852227315621</v>
+        <v>30.788645248418213</v>
       </c>
       <c r="W131" s="19">
-        <v>25.175405960815205</v>
+        <v>24.311746582973253</v>
       </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
@@ -32042,7 +32043,7 @@
     </row>
     <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -32053,7 +32054,7 @@
     </row>
     <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -32228,10 +32229,10 @@
         <v>13.899571921535017</v>
       </c>
       <c r="V149" s="19">
-        <v>14.835868517243281</v>
+        <v>14.771891133599363</v>
       </c>
       <c r="W149" s="19">
-        <v>14.555671469115969</v>
+        <v>15.007162647144073</v>
       </c>
       <c r="X149" s="9"/>
       <c r="Y149" s="9"/>
@@ -32372,10 +32373,10 @@
         <v>23.838986409779473</v>
       </c>
       <c r="V150" s="19">
-        <v>24.335293290950442</v>
+        <v>24.237397797531074</v>
       </c>
       <c r="W150" s="19">
-        <v>20.771768311339621</v>
+        <v>19.613976910318815</v>
       </c>
       <c r="X150" s="9"/>
       <c r="Y150" s="9"/>
@@ -32516,10 +32517,10 @@
         <v>14.493953530804013</v>
       </c>
       <c r="V151" s="19">
-        <v>13.549460984624059</v>
+        <v>13.841562689727544</v>
       </c>
       <c r="W151" s="19">
-        <v>14.260562916217138</v>
+        <v>15.502649611899697</v>
       </c>
       <c r="X151" s="9"/>
       <c r="Y151" s="9"/>
@@ -32660,10 +32661,10 @@
         <v>11.843439819635142</v>
       </c>
       <c r="V152" s="19">
-        <v>14.155063731553428</v>
+        <v>14.152337396999821</v>
       </c>
       <c r="W152" s="19">
-        <v>15.956315515386835</v>
+        <v>16.274414712030939</v>
       </c>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
@@ -32804,10 +32805,10 @@
         <v>6.3963772174177755</v>
       </c>
       <c r="V153" s="19">
-        <v>5.4375717900368468</v>
+        <v>5.4156567356090708</v>
       </c>
       <c r="W153" s="19">
-        <v>4.0789071109685207</v>
+        <v>4.1171763565156869</v>
       </c>
       <c r="X153" s="9"/>
       <c r="Y153" s="9"/>
@@ -32948,10 +32949,10 @@
         <v>29.527671100828574</v>
       </c>
       <c r="V154" s="19">
-        <v>27.686741685591958</v>
+        <v>27.581154246533124</v>
       </c>
       <c r="W154" s="19">
-        <v>30.37677467697192</v>
+        <v>29.484619762090791</v>
       </c>
       <c r="X154" s="9"/>
       <c r="Y154" s="9"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430C054-9819-44AA-BA71-B3F06C52B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213A7E6-5876-40F7-BF3A-1FC5966FA1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$W$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$X$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -718,59 +721,52 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -792,7 +788,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15159,7 +15155,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15868,7 +15864,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15891,7 +15887,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15920,7 +15916,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15983,7 +15979,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16012,7 +16008,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16043,7 +16039,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18437,7 +18433,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18525,7 +18521,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18546,7 +18542,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18603,7 +18599,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18620,7 +18616,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18661,7 +18657,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18674,7 +18670,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18721,7 +18717,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18750,7 +18746,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23167,7 +23163,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23210,7 +23206,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23592,51 +23588,51 @@
   <dimension ref="A1:CR160"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="8.26953125" style="10" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="10"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="8.21875" style="10" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -23662,8 +23658,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -23733,11 +23730,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -23807,7 +23807,9 @@
       <c r="W12" s="8">
         <v>23684.634802827146</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>71844.944934315994</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23881,7 +23883,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -23951,7 +23953,9 @@
       <c r="W13" s="8">
         <v>35193.178733529494</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>55341.340153384721</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24025,7 +24029,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -24095,7 +24099,9 @@
       <c r="W14" s="8">
         <v>36906.68025046782</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>46439.396486635866</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24169,7 +24175,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24239,7 +24245,9 @@
       <c r="W15" s="8">
         <v>33652.598592090835</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="8">
+        <v>40148.055421601624</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24313,7 +24321,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -24383,7 +24391,9 @@
       <c r="W16" s="8">
         <v>10801.145916399586</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="8">
+        <v>13824.760246179801</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24457,7 +24467,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -24527,7 +24537,9 @@
       <c r="W17" s="8">
         <v>45045.781303645817</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="8">
+        <v>52385.119948068066</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24601,7 +24613,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -24698,7 +24710,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -24768,7 +24780,9 @@
       <c r="W19" s="12">
         <v>185284.01959896067</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="12">
+        <v>279983.61719018605</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -24842,7 +24856,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -24866,13 +24880,14 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -24969,7 +24984,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -25066,39 +25081,39 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -25124,8 +25139,9 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -25195,11 +25211,14 @@
       <c r="W33" s="15">
         <v>2021</v>
       </c>
+      <c r="X33" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -25269,7 +25288,9 @@
       <c r="W35" s="8">
         <v>21675.00051567312</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="8">
+        <v>23782.752988384618</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25343,7 +25364,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -25413,7 +25434,9 @@
       <c r="W36" s="8">
         <v>28328.670091842152</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="8">
+        <v>26495.466926113568</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25487,7 +25510,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -25557,7 +25580,9 @@
       <c r="W37" s="8">
         <v>22390.637473111659</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="8">
+        <v>27829.484783905402</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -25631,7 +25656,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -25701,7 +25726,9 @@
       <c r="W38" s="8">
         <v>23505.305804270618</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="8">
+        <v>18434.566341334361</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25775,7 +25802,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -25845,7 +25872,9 @@
       <c r="W39" s="8">
         <v>5946.4804739473802</v>
       </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="8">
+        <v>8609.6728892474366</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -25919,7 +25948,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -25989,7 +26018,9 @@
       <c r="W40" s="8">
         <v>42584.941842378394</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="8">
+        <v>46914.454966410485</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -26063,7 +26094,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -26086,7 +26117,7 @@
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
-      <c r="X41" s="9"/>
+      <c r="X41" s="12"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -26160,7 +26191,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
@@ -26230,7 +26261,9 @@
       <c r="W42" s="12">
         <v>144431.03620122332</v>
       </c>
-      <c r="X42" s="9"/>
+      <c r="X42" s="12">
+        <v>152066.39889539586</v>
+      </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -26304,7 +26337,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -26328,13 +26361,14 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -26431,7 +26465,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -26528,39 +26562,39 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="16" t="s">
         <v>9</v>
@@ -26586,8 +26620,9 @@
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
     </row>
-    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
@@ -26654,12 +26689,15 @@
       <c r="V56" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W56" s="17"/>
+      <c r="W56" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X56" s="17"/>
     </row>
-    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -26726,8 +26764,10 @@
       <c r="V58" s="18">
         <v>112.28100606075452</v>
       </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="9"/>
+      <c r="W58" s="18">
+        <v>203.33988905642798</v>
+      </c>
+      <c r="X58" s="18"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
@@ -26795,7 +26835,7 @@
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
     </row>
-    <row r="59" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -26862,8 +26902,10 @@
       <c r="V59" s="18">
         <v>56.177768906668774</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="9"/>
+      <c r="W59" s="18">
+        <v>57.250189226753548</v>
+      </c>
+      <c r="X59" s="18"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -26931,7 +26973,7 @@
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
     </row>
-    <row r="60" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -26998,8 +27040,10 @@
       <c r="V60" s="18">
         <v>14.425239346169889</v>
       </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="9"/>
+      <c r="W60" s="18">
+        <v>25.829243300871553</v>
+      </c>
+      <c r="X60" s="18"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -27067,7 +27111,7 @@
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
     </row>
-    <row r="61" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -27134,8 +27178,10 @@
       <c r="V61" s="18">
         <v>67.698370545103671</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="9"/>
+      <c r="W61" s="18">
+        <v>19.301501522195608</v>
+      </c>
+      <c r="X61" s="18"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -27203,7 +27249,7 @@
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
     </row>
-    <row r="62" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -27270,8 +27316,10 @@
       <c r="V62" s="18">
         <v>22.064294269222543</v>
       </c>
-      <c r="W62" s="18"/>
-      <c r="X62" s="9"/>
+      <c r="W62" s="18">
+        <v>27.993458779122719</v>
+      </c>
+      <c r="X62" s="18"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -27339,7 +27387,7 @@
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
     </row>
-    <row r="63" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -27406,8 +27454,10 @@
       <c r="V63" s="18">
         <v>6.7460510437718568</v>
       </c>
-      <c r="W63" s="18"/>
-      <c r="X63" s="9"/>
+      <c r="W63" s="18">
+        <v>16.293065481424421</v>
+      </c>
+      <c r="X63" s="18"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -27475,7 +27525,7 @@
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
     </row>
-    <row r="64" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -27566,7 +27616,7 @@
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
     </row>
-    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>1</v>
       </c>
@@ -27633,8 +27683,10 @@
       <c r="V65" s="18">
         <v>35.184293980671157</v>
       </c>
-      <c r="W65" s="18"/>
-      <c r="X65" s="9"/>
+      <c r="W65" s="18">
+        <v>51.110504724691623</v>
+      </c>
+      <c r="X65" s="18"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -27702,7 +27754,7 @@
       <c r="CK65" s="9"/>
       <c r="CL65" s="9"/>
     </row>
-    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -27726,13 +27778,14 @@
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
     </row>
-    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -27823,7 +27876,7 @@
       <c r="CK68" s="9"/>
       <c r="CL68" s="9"/>
     </row>
-    <row r="69" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -27914,39 +27967,39 @@
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
     </row>
-    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="16" t="s">
         <v>9</v>
@@ -27972,8 +28025,9 @@
       <c r="U78" s="16"/>
       <c r="V78" s="16"/>
       <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
     </row>
-    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>8</v>
       </c>
@@ -28040,12 +28094,15 @@
       <c r="V79" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W79" s="6"/>
+      <c r="W79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X79" s="6"/>
     </row>
-    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -28112,8 +28169,10 @@
       <c r="V81" s="18">
         <v>6.7191483319228666</v>
       </c>
-      <c r="W81" s="18"/>
-      <c r="X81" s="9"/>
+      <c r="W81" s="18">
+        <v>9.7243479703144118</v>
+      </c>
+      <c r="X81" s="18"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
@@ -28181,7 +28240,7 @@
       <c r="CK81" s="9"/>
       <c r="CL81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -28248,8 +28307,10 @@
       <c r="V82" s="18">
         <v>-14.992052859246471</v>
       </c>
-      <c r="W82" s="18"/>
-      <c r="X82" s="9"/>
+      <c r="W82" s="18">
+        <v>-6.4711938816234635</v>
+      </c>
+      <c r="X82" s="18"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
@@ -28317,7 +28378,7 @@
       <c r="CK82" s="9"/>
       <c r="CL82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -28384,8 +28445,10 @@
       <c r="V83" s="18">
         <v>17.652366424437645</v>
       </c>
-      <c r="W83" s="18"/>
-      <c r="X83" s="9"/>
+      <c r="W83" s="18">
+        <v>24.290721143268541</v>
+      </c>
+      <c r="X83" s="18"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
@@ -28453,7 +28516,7 @@
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -28520,8 +28583,10 @@
       <c r="V84" s="18">
         <v>20.797254732564554</v>
       </c>
-      <c r="W84" s="18"/>
-      <c r="X84" s="9"/>
+      <c r="W84" s="18">
+        <v>-21.572744065363182</v>
+      </c>
+      <c r="X84" s="18"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -28589,7 +28654,7 @@
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -28656,8 +28721,10 @@
       <c r="V85" s="18">
         <v>-20.140203285565889</v>
       </c>
-      <c r="W85" s="18"/>
-      <c r="X85" s="9"/>
+      <c r="W85" s="18">
+        <v>44.786028087841032</v>
+      </c>
+      <c r="X85" s="18"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -28725,7 +28792,7 @@
       <c r="CK85" s="9"/>
       <c r="CL85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -28792,8 +28859,10 @@
       <c r="V86" s="18">
         <v>12.295655341226848</v>
       </c>
-      <c r="W86" s="18"/>
-      <c r="X86" s="9"/>
+      <c r="W86" s="18">
+        <v>10.166770075810177</v>
+      </c>
+      <c r="X86" s="18"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -28861,7 +28930,7 @@
       <c r="CK86" s="9"/>
       <c r="CL86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -28952,7 +29021,7 @@
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>1</v>
       </c>
@@ -29019,8 +29088,10 @@
       <c r="V88" s="18">
         <v>5.0460822005957482</v>
       </c>
-      <c r="W88" s="18"/>
-      <c r="X88" s="9"/>
+      <c r="W88" s="18">
+        <v>5.2865110539917879</v>
+      </c>
+      <c r="X88" s="18"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -29088,7 +29159,7 @@
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
     </row>
-    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -29112,13 +29183,14 @@
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
       <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
     </row>
-    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -29209,7 +29281,7 @@
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -29306,34 +29378,34 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>9</v>
@@ -29359,8 +29431,9 @@
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
@@ -29430,11 +29503,14 @@
       <c r="W101" s="15">
         <v>2021</v>
       </c>
+      <c r="X101" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -29504,7 +29580,9 @@
       <c r="W103" s="19">
         <v>109.27166892430229</v>
       </c>
-      <c r="X103" s="9"/>
+      <c r="X103" s="19">
+        <v>302.08842924704607</v>
+      </c>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
@@ -29578,7 +29656,7 @@
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
     </row>
-    <row r="104" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -29648,7 +29726,9 @@
       <c r="W104" s="19">
         <v>124.23166572745016</v>
       </c>
-      <c r="X104" s="9"/>
+      <c r="X104" s="19">
+        <v>208.87097520384162</v>
+      </c>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
@@ -29722,7 +29802,7 @@
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
     </row>
-    <row r="105" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -29792,7 +29872,9 @@
       <c r="W105" s="19">
         <v>164.83085975014379</v>
       </c>
-      <c r="X105" s="9"/>
+      <c r="X105" s="19">
+        <v>166.87120457757493</v>
+      </c>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
@@ -29866,7 +29948,7 @@
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -29936,7 +30018,9 @@
       <c r="W106" s="19">
         <v>143.17022238432898</v>
       </c>
-      <c r="X106" s="9"/>
+      <c r="X106" s="19">
+        <v>217.78681786281479</v>
+      </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -30010,7 +30094,7 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -30080,7 +30164,9 @@
       <c r="W107" s="19">
         <v>181.63930687608214</v>
       </c>
-      <c r="X107" s="9"/>
+      <c r="X107" s="19">
+        <v>160.57242155442924</v>
+      </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -30154,7 +30240,7 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -30224,7 +30310,9 @@
       <c r="W108" s="19">
         <v>105.77866108253909</v>
       </c>
-      <c r="X108" s="9"/>
+      <c r="X108" s="19">
+        <v>111.66093688091321</v>
+      </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -30298,7 +30386,7 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -30395,7 +30483,7 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>1</v>
       </c>
@@ -30465,7 +30553,9 @@
       <c r="W110" s="19">
         <v>128.28546029457297</v>
       </c>
-      <c r="X110" s="9"/>
+      <c r="X110" s="19">
+        <v>184.11931841878001</v>
+      </c>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
@@ -30539,7 +30629,7 @@
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -30563,45 +30653,46 @@
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
+      <c r="X111" s="13"/>
     </row>
-    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>9</v>
@@ -30627,8 +30718,9 @@
       <c r="U123" s="5"/>
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -30698,11 +30790,14 @@
       <c r="W124" s="15">
         <v>2021</v>
       </c>
+      <c r="X124" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -30772,7 +30867,9 @@
       <c r="W126" s="19">
         <v>12.782880495625864</v>
       </c>
-      <c r="X126" s="9"/>
+      <c r="X126" s="19">
+        <v>25.660410296618704</v>
+      </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -30846,7 +30943,7 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -30916,7 +31013,9 @@
       <c r="W127" s="19">
         <v>18.994179211841164</v>
       </c>
-      <c r="X127" s="9"/>
+      <c r="X127" s="19">
+        <v>19.765920845215991</v>
+      </c>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
@@ -30990,7 +31089,7 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -31060,7 +31159,9 @@
       <c r="W128" s="19">
         <v>19.918976461300197</v>
       </c>
-      <c r="X128" s="9"/>
+      <c r="X128" s="19">
+        <v>16.586469220122517</v>
+      </c>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -31134,7 +31235,7 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -31204,7 +31305,9 @@
       <c r="W129" s="19">
         <v>18.16270969559622</v>
       </c>
-      <c r="X129" s="9"/>
+      <c r="X129" s="19">
+        <v>14.339430222565497</v>
+      </c>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
@@ -31278,7 +31381,7 @@
       <c r="CQ129" s="9"/>
       <c r="CR129" s="9"/>
     </row>
-    <row r="130" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -31348,7 +31451,9 @@
       <c r="W130" s="19">
         <v>5.8295075526633138</v>
       </c>
-      <c r="X130" s="9"/>
+      <c r="X130" s="19">
+        <v>4.937703278827553</v>
+      </c>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
@@ -31422,7 +31527,7 @@
       <c r="CQ130" s="9"/>
       <c r="CR130" s="9"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -31492,7 +31597,9 @@
       <c r="W131" s="19">
         <v>24.311746582973253</v>
       </c>
-      <c r="X131" s="9"/>
+      <c r="X131" s="19">
+        <v>18.71006613664975</v>
+      </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -31566,7 +31673,7 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -31663,7 +31770,7 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>1</v>
       </c>
@@ -31733,7 +31840,9 @@
       <c r="W133" s="19">
         <v>100</v>
       </c>
-      <c r="X133" s="9"/>
+      <c r="X133" s="19">
+        <v>100</v>
+      </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -31807,7 +31916,7 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -31831,13 +31940,14 @@
       <c r="U134" s="13"/>
       <c r="V134" s="13"/>
       <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
     </row>
-    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -31934,7 +32044,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -32031,39 +32141,39 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
         <v>9</v>
@@ -32089,8 +32199,9 @@
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
     </row>
-    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>8</v>
       </c>
@@ -32160,11 +32271,14 @@
       <c r="W147" s="15">
         <v>2021</v>
       </c>
+      <c r="X147" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
@@ -32234,7 +32348,9 @@
       <c r="W149" s="19">
         <v>15.007162647144073</v>
       </c>
-      <c r="X149" s="9"/>
+      <c r="X149" s="19">
+        <v>15.639716045846793</v>
+      </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
@@ -32308,7 +32424,7 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -32378,7 +32494,9 @@
       <c r="W150" s="19">
         <v>19.613976910318815</v>
       </c>
-      <c r="X150" s="9"/>
+      <c r="X150" s="19">
+        <v>17.423616997953236</v>
+      </c>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
@@ -32452,7 +32570,7 @@
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
     </row>
-    <row r="151" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -32522,7 +32640,9 @@
       <c r="W151" s="19">
         <v>15.502649611899697</v>
       </c>
-      <c r="X151" s="9"/>
+      <c r="X151" s="19">
+        <v>18.300877107669837</v>
+      </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
@@ -32596,7 +32716,7 @@
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
     </row>
-    <row r="152" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>4</v>
       </c>
@@ -32666,7 +32786,9 @@
       <c r="W152" s="19">
         <v>16.274414712030939</v>
       </c>
-      <c r="X152" s="9"/>
+      <c r="X152" s="19">
+        <v>12.122708550503136</v>
+      </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
@@ -32740,7 +32862,7 @@
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
     </row>
-    <row r="153" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -32810,7 +32932,9 @@
       <c r="W153" s="19">
         <v>4.1171763565156869</v>
       </c>
-      <c r="X153" s="9"/>
+      <c r="X153" s="19">
+        <v>5.6617852147402381</v>
+      </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
@@ -32884,7 +33008,7 @@
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
     </row>
-    <row r="154" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
@@ -32954,7 +33078,9 @@
       <c r="W154" s="19">
         <v>29.484619762090791</v>
       </c>
-      <c r="X154" s="9"/>
+      <c r="X154" s="19">
+        <v>30.851296083286762</v>
+      </c>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
@@ -33028,7 +33154,7 @@
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
     </row>
-    <row r="155" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -33125,7 +33251,7 @@
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
     </row>
-    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>1</v>
       </c>
@@ -33195,7 +33321,9 @@
       <c r="W156" s="19">
         <v>100</v>
       </c>
-      <c r="X156" s="9"/>
+      <c r="X156" s="19">
+        <v>100</v>
+      </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
@@ -33269,7 +33397,7 @@
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
     </row>
-    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -33293,13 +33421,14 @@
       <c r="U157" s="13"/>
       <c r="V157" s="13"/>
       <c r="W157" s="13"/>
+      <c r="X157" s="13"/>
     </row>
-    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
@@ -33397,7 +33526,7 @@
       <c r="CQ159" s="20"/>
       <c r="CR159" s="20"/>
     </row>
-    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
@@ -33496,13 +33625,8 @@
       <c r="CR160" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V103:V110 V58:V63 V65 V81:V86 V88">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W81:W86 W88 W103:W110 W58:W63 W65">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="V103:X110 V58:X63 V65:X65 V81:X86 V88:X88">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33511,9 +33635,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="22" man="1"/>
-    <brk id="92" max="22" man="1"/>
-    <brk id="114" max="22" man="1"/>
+    <brk id="46" max="23" man="1"/>
+    <brk id="92" max="23" man="1"/>
+    <brk id="114" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213A7E6-5876-40F7-BF3A-1FC5966FA1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DB8FF-499A-4190-A061-4C9188E74150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -619,13 +619,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23590,7 +23590,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="topRight" activeCell="V146" activeCellId="6" sqref="A1:CR160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23612,7 +23612,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23623,7 +23623,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23805,10 +23805,10 @@
         <v>11157.208665220212</v>
       </c>
       <c r="W12" s="8">
-        <v>23684.634802827146</v>
+        <v>23762.583899366153</v>
       </c>
       <c r="X12" s="8">
-        <v>71844.944934315994</v>
+        <v>71825.022521769279</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -24100,7 +24100,7 @@
         <v>36906.68025046782</v>
       </c>
       <c r="X14" s="8">
-        <v>46439.396486635866</v>
+        <v>46358.044668214585</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24243,10 +24243,10 @@
         <v>20067.337853494366</v>
       </c>
       <c r="W15" s="8">
-        <v>33652.598592090835</v>
+        <v>33668.803712624023</v>
       </c>
       <c r="X15" s="8">
-        <v>40148.055421601624</v>
+        <v>40480.470233402404</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24392,7 +24392,7 @@
         <v>10801.145916399586</v>
       </c>
       <c r="X16" s="8">
-        <v>13824.760246179801</v>
+        <v>13792.47374890589</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24535,10 +24535,10 @@
         <v>42199.014261590368</v>
       </c>
       <c r="W17" s="8">
-        <v>45045.781303645817</v>
+        <v>45038.646238752321</v>
       </c>
       <c r="X17" s="8">
-        <v>52385.119948068066</v>
+        <v>52452.275607579031</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24778,10 +24778,10 @@
         <v>137060.31532439179</v>
       </c>
       <c r="W19" s="12">
-        <v>185284.01959896067</v>
+        <v>185371.03875113939</v>
       </c>
       <c r="X19" s="12">
-        <v>279983.61719018605</v>
+        <v>280249.62693325587</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -25093,7 +25093,7 @@
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25104,7 +25104,7 @@
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25286,10 +25286,10 @@
         <v>20310.319988928815</v>
       </c>
       <c r="W35" s="8">
-        <v>21675.00051567312</v>
+        <v>21738.371055529322</v>
       </c>
       <c r="X35" s="8">
-        <v>23782.752988384618</v>
+        <v>23781.891964644725</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25581,7 +25581,7 @@
         <v>22390.637473111659</v>
       </c>
       <c r="X37" s="8">
-        <v>27829.484783905402</v>
+        <v>27783.505773850189</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -25724,10 +25724,10 @@
         <v>19458.476814154001</v>
       </c>
       <c r="W38" s="8">
-        <v>23505.305804270618</v>
+        <v>23516.441453297495</v>
       </c>
       <c r="X38" s="8">
-        <v>18434.566341334361</v>
+        <v>18561.878048289011</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25873,7 +25873,7 @@
         <v>5946.4804739473802</v>
       </c>
       <c r="X39" s="8">
-        <v>8609.6728892474366</v>
+        <v>8570.7291388209615</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -26016,10 +26016,10 @@
         <v>37922.163340137951</v>
       </c>
       <c r="W40" s="8">
-        <v>42584.941842378394</v>
+        <v>42577.500398384975</v>
       </c>
       <c r="X40" s="8">
-        <v>46914.454966410485</v>
+        <v>46991.065488824133</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -26259,10 +26259,10 @@
         <v>137493.02513292991</v>
       </c>
       <c r="W42" s="12">
-        <v>144431.03620122332</v>
+        <v>144498.100946113</v>
       </c>
       <c r="X42" s="12">
-        <v>152066.39889539586</v>
+        <v>152184.53734054259</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -26574,7 +26574,7 @@
     </row>
     <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26585,7 +26585,7 @@
     </row>
     <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26762,10 +26762,10 @@
         <v>-34.103360510886617</v>
       </c>
       <c r="V58" s="18">
-        <v>112.28100606075452</v>
+        <v>112.97964941213317</v>
       </c>
       <c r="W58" s="18">
-        <v>203.33988905642798</v>
+        <v>202.26099495722411</v>
       </c>
       <c r="X58" s="18"/>
       <c r="Y58" s="9"/>
@@ -27041,7 +27041,7 @@
         <v>14.425239346169889</v>
       </c>
       <c r="W60" s="18">
-        <v>25.829243300871553</v>
+        <v>25.608817573417369</v>
       </c>
       <c r="X60" s="18"/>
       <c r="Y60" s="9"/>
@@ -27176,10 +27176,10 @@
         <v>0.13827892389738849</v>
       </c>
       <c r="V61" s="18">
-        <v>67.698370545103671</v>
+        <v>67.779124258682913</v>
       </c>
       <c r="W61" s="18">
-        <v>19.301501522195608</v>
+        <v>20.231388613977884</v>
       </c>
       <c r="X61" s="18"/>
       <c r="Y61" s="9"/>
@@ -27317,7 +27317,7 @@
         <v>22.064294269222543</v>
       </c>
       <c r="W62" s="18">
-        <v>27.993458779122719</v>
+        <v>27.694541446426669</v>
       </c>
       <c r="X62" s="18"/>
       <c r="Y62" s="9"/>
@@ -27452,10 +27452,10 @@
         <v>-16.07904255865995</v>
       </c>
       <c r="V63" s="18">
-        <v>6.7460510437718568</v>
+        <v>6.7291429121049191</v>
       </c>
       <c r="W63" s="18">
-        <v>16.293065481424421</v>
+        <v>16.460595483990929</v>
       </c>
       <c r="X63" s="18"/>
       <c r="Y63" s="9"/>
@@ -27681,10 +27681,10 @@
         <v>-15.215025106358809</v>
       </c>
       <c r="V65" s="18">
-        <v>35.184293980671157</v>
+        <v>35.247783658170277</v>
       </c>
       <c r="W65" s="18">
-        <v>51.110504724691623</v>
+        <v>51.183069815717545</v>
       </c>
       <c r="X65" s="18"/>
       <c r="Y65" s="9"/>
@@ -27979,7 +27979,7 @@
     </row>
     <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27990,7 +27990,7 @@
     </row>
     <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28167,10 +28167,10 @@
         <v>-13.464116611987592</v>
       </c>
       <c r="V81" s="18">
-        <v>6.7191483319228666</v>
+        <v>7.0311598604991872</v>
       </c>
       <c r="W81" s="18">
-        <v>9.7243479703144118</v>
+        <v>9.4005245558434609</v>
       </c>
       <c r="X81" s="18"/>
       <c r="Y81" s="9"/>
@@ -28446,7 +28446,7 @@
         <v>17.652366424437645</v>
       </c>
       <c r="W83" s="18">
-        <v>24.290721143268541</v>
+        <v>24.085371875698883</v>
       </c>
       <c r="X83" s="18"/>
       <c r="Y83" s="9"/>
@@ -28581,10 +28581,10 @@
         <v>-2.7002163954953318</v>
       </c>
       <c r="V84" s="18">
-        <v>20.797254732564554</v>
+        <v>20.854482485452053</v>
       </c>
       <c r="W84" s="18">
-        <v>-21.572744065363182</v>
+        <v>-21.068508238578559</v>
       </c>
       <c r="X84" s="18"/>
       <c r="Y84" s="9"/>
@@ -28722,7 +28722,7 @@
         <v>-20.140203285565889</v>
       </c>
       <c r="W85" s="18">
-        <v>44.786028087841032</v>
+        <v>44.131123886993237</v>
       </c>
       <c r="X85" s="18"/>
       <c r="Y85" s="9"/>
@@ -28857,10 +28857,10 @@
         <v>-23.942017619161376</v>
       </c>
       <c r="V86" s="18">
-        <v>12.295655341226848</v>
+        <v>12.276032399553728</v>
       </c>
       <c r="W86" s="18">
-        <v>10.166770075810177</v>
+        <v>10.365956312941677</v>
       </c>
       <c r="X86" s="18"/>
       <c r="Y86" s="9"/>
@@ -29086,10 +29086,10 @@
         <v>-18.57428923170211</v>
       </c>
       <c r="V88" s="18">
-        <v>5.0460822005957482</v>
+        <v>5.0948590347841218</v>
       </c>
       <c r="W88" s="18">
-        <v>5.2865110539917879</v>
+        <v>5.3194030538131756</v>
       </c>
       <c r="X88" s="18"/>
       <c r="Y88" s="9"/>
@@ -29385,7 +29385,7 @@
     </row>
     <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -29396,7 +29396,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29578,10 +29578,10 @@
         <v>54.933692188513149</v>
       </c>
       <c r="W103" s="19">
-        <v>109.27166892430229</v>
+        <v>109.31170435294395</v>
       </c>
       <c r="X103" s="19">
-        <v>302.08842924704607</v>
+        <v>302.01559501047154</v>
       </c>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
@@ -29873,7 +29873,7 @@
         <v>164.83085975014379</v>
       </c>
       <c r="X105" s="19">
-        <v>166.87120457757493</v>
+        <v>166.85455408527579</v>
       </c>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
@@ -30016,10 +30016,10 @@
         <v>103.12902723658968</v>
       </c>
       <c r="W106" s="19">
-        <v>143.17022238432898</v>
+        <v>143.17133729390403</v>
       </c>
       <c r="X106" s="19">
-        <v>217.78681786281479</v>
+        <v>218.08391439751861</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -30165,7 +30165,7 @@
         <v>181.63930687608214</v>
       </c>
       <c r="X107" s="19">
-        <v>160.57242155442924</v>
+        <v>160.92532531955922</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -30308,10 +30308,10 @@
         <v>111.27797188966187</v>
       </c>
       <c r="W108" s="19">
-        <v>105.77866108253909</v>
+        <v>105.7803906226038</v>
       </c>
       <c r="X108" s="19">
-        <v>111.66093688091321</v>
+        <v>111.62180525583898</v>
       </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -30551,10 +30551,10 @@
         <v>99.685285993147815</v>
       </c>
       <c r="W110" s="19">
-        <v>128.28546029457297</v>
+        <v>128.2861418505901</v>
       </c>
       <c r="X110" s="19">
-        <v>184.11931841878001</v>
+        <v>184.15118370806795</v>
       </c>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -30672,7 +30672,7 @@
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30683,7 +30683,7 @@
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30865,10 +30865,10 @@
         <v>8.1403640716961281</v>
       </c>
       <c r="W126" s="19">
-        <v>12.782880495625864</v>
+        <v>12.81893010874661</v>
       </c>
       <c r="X126" s="19">
-        <v>25.660410296618704</v>
+        <v>25.628944918765264</v>
       </c>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -31011,10 +31011,10 @@
         <v>16.440974438747073</v>
       </c>
       <c r="W127" s="19">
-        <v>18.994179211841164</v>
+        <v>18.985262730698906</v>
       </c>
       <c r="X127" s="19">
-        <v>19.765920845215991</v>
+        <v>19.747159259043293</v>
       </c>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
@@ -31157,10 +31157,10 @@
         <v>23.532681995028813</v>
       </c>
       <c r="W128" s="19">
-        <v>19.918976461300197</v>
+        <v>19.909625850462561</v>
       </c>
       <c r="X128" s="19">
-        <v>16.586469220122517</v>
+        <v>16.54169719171658</v>
       </c>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -31303,10 +31303,10 @@
         <v>14.641245940518498</v>
       </c>
       <c r="W129" s="19">
-        <v>18.16270969559622</v>
+        <v>18.162925524641629</v>
       </c>
       <c r="X129" s="19">
-        <v>14.339430222565497</v>
+        <v>14.444433227753489</v>
       </c>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
@@ -31449,10 +31449,10 @@
         <v>6.4560883055912788</v>
       </c>
       <c r="W130" s="19">
-        <v>5.8295075526633138</v>
+        <v>5.8267709935531649</v>
       </c>
       <c r="X130" s="19">
-        <v>4.937703278827553</v>
+        <v>4.9214958463408403</v>
       </c>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
@@ -31595,10 +31595,10 @@
         <v>30.788645248418213</v>
       </c>
       <c r="W131" s="19">
-        <v>24.311746582973253</v>
+        <v>24.296484791897132</v>
       </c>
       <c r="X131" s="19">
-        <v>18.71006613664975</v>
+        <v>18.716269556380549</v>
       </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -32153,7 +32153,7 @@
     </row>
     <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32164,7 +32164,7 @@
     </row>
     <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32346,10 +32346,10 @@
         <v>14.771891133599363</v>
       </c>
       <c r="W149" s="19">
-        <v>15.007162647144073</v>
+        <v>15.044053114328548</v>
       </c>
       <c r="X149" s="19">
-        <v>15.639716045846793</v>
+        <v>15.627009405974079</v>
       </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
@@ -32492,10 +32492,10 @@
         <v>24.237397797531074</v>
       </c>
       <c r="W150" s="19">
-        <v>19.613976910318815</v>
+        <v>19.60487363249613</v>
       </c>
       <c r="X150" s="19">
-        <v>17.423616997953236</v>
+        <v>17.410091320135102</v>
       </c>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
@@ -32638,10 +32638,10 @@
         <v>13.841562689727544</v>
       </c>
       <c r="W151" s="19">
-        <v>15.502649611899697</v>
+        <v>15.495454491448088</v>
       </c>
       <c r="X151" s="19">
-        <v>18.300877107669837</v>
+        <v>18.256457758043563</v>
       </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
@@ -32784,10 +32784,10 @@
         <v>14.152337396999821</v>
       </c>
       <c r="W152" s="19">
-        <v>16.274414712030939</v>
+        <v>16.274567831218327</v>
       </c>
       <c r="X152" s="19">
-        <v>12.122708550503136</v>
+        <v>12.19695402217716</v>
       </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -32930,10 +32930,10 @@
         <v>5.4156567356090708</v>
       </c>
       <c r="W153" s="19">
-        <v>4.1171763565156869</v>
+        <v>4.115265484468182</v>
       </c>
       <c r="X153" s="19">
-        <v>5.6617852147402381</v>
+        <v>5.6318002397591043</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -33076,10 +33076,10 @@
         <v>27.581154246533124</v>
       </c>
       <c r="W154" s="19">
-        <v>29.484619762090791</v>
+        <v>29.465785446040709</v>
       </c>
       <c r="X154" s="19">
-        <v>30.851296083286762</v>
+        <v>30.877687253910992</v>
       </c>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
@@ -33625,11 +33625,6 @@
       <c r="CR160" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V103:X110 V58:X63 V65:X65 V81:X86 V88:X88">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DB8FF-499A-4190-A061-4C9188E74150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14A5DD-9F97-4B93-934A-C1294444A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$X$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$Y$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -766,15 +769,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -23590,14 +23585,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V146" activeCellId="6" sqref="A1:CR160"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="24" width="8.21875" style="10" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="25" width="8.21875" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23612,7 +23607,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23623,7 +23618,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23659,6 +23654,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23732,6 +23728,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23810,7 +23809,9 @@
       <c r="X12" s="8">
         <v>71825.022521769279</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>37257.692447777554</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23956,7 +23957,9 @@
       <c r="X13" s="8">
         <v>55341.340153384721</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>24428.564244450175</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24102,7 +24105,9 @@
       <c r="X14" s="8">
         <v>46358.044668214585</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>54018.449936250901</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24248,7 +24253,9 @@
       <c r="X15" s="8">
         <v>40480.470233402404</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="8">
+        <v>43096.529170650174</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24394,7 +24401,9 @@
       <c r="X16" s="8">
         <v>13792.47374890589</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="8">
+        <v>14099.392873901133</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24540,7 +24549,9 @@
       <c r="X17" s="8">
         <v>52452.275607579031</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="8">
+        <v>58848.826552094353</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -24783,7 +24794,9 @@
       <c r="X19" s="12">
         <v>280249.62693325587</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="12">
+        <v>231749.45522512431</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -24881,6 +24894,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -25093,7 +25107,7 @@
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25104,7 +25118,7 @@
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25140,6 +25154,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -25213,6 +25228,9 @@
       </c>
       <c r="X33" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="34" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25291,7 +25309,9 @@
       <c r="X35" s="8">
         <v>23781.891964644725</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="8">
+        <v>24077.718018477572</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25437,7 +25457,9 @@
       <c r="X36" s="8">
         <v>26495.466926113568</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="8">
+        <v>20076.26653443437</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25583,7 +25605,9 @@
       <c r="X37" s="8">
         <v>27783.505773850189</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="8">
+        <v>29782.623994819187</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -25729,7 +25753,9 @@
       <c r="X38" s="8">
         <v>18561.878048289011</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="8">
+        <v>22034.013422626478</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25875,7 +25901,9 @@
       <c r="X39" s="8">
         <v>8570.7291388209615</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="8">
+        <v>8680.373791607406</v>
+      </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -26021,7 +26049,9 @@
       <c r="X40" s="8">
         <v>46991.065488824133</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="8">
+        <v>50434.596074559609</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -26118,7 +26148,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -26264,7 +26294,9 @@
       <c r="X42" s="12">
         <v>152184.53734054259</v>
       </c>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="12">
+        <v>155085.5918365246</v>
+      </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -26362,6 +26394,7 @@
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -26574,7 +26607,7 @@
     </row>
     <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26585,7 +26618,7 @@
     </row>
     <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26621,6 +26654,7 @@
       <c r="V55" s="16"/>
       <c r="W55" s="16"/>
       <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
     </row>
     <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -26692,7 +26726,10 @@
       <c r="W56" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="X56" s="17"/>
+      <c r="X56" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" s="17"/>
     </row>
     <row r="57" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -26767,8 +26804,10 @@
       <c r="W58" s="18">
         <v>202.26099495722411</v>
       </c>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="9"/>
+      <c r="X58" s="18">
+        <v>-48.127141294685693</v>
+      </c>
+      <c r="Y58" s="18"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
@@ -26905,8 +26944,10 @@
       <c r="W59" s="18">
         <v>57.250189226753548</v>
       </c>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="9"/>
+      <c r="X59" s="18">
+        <v>-55.858379690944105</v>
+      </c>
+      <c r="Y59" s="18"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -27043,8 +27084,10 @@
       <c r="W60" s="18">
         <v>25.608817573417369</v>
       </c>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="9"/>
+      <c r="X60" s="18">
+        <v>16.524435667772423</v>
+      </c>
+      <c r="Y60" s="18"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -27181,8 +27224,10 @@
       <c r="W61" s="18">
         <v>20.231388613977884</v>
       </c>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="9"/>
+      <c r="X61" s="18">
+        <v>6.4625211173785431</v>
+      </c>
+      <c r="Y61" s="18"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -27319,8 +27364,10 @@
       <c r="W62" s="18">
         <v>27.694541446426669</v>
       </c>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="9"/>
+      <c r="X62" s="18">
+        <v>2.2252652467044953</v>
+      </c>
+      <c r="Y62" s="18"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -27457,8 +27504,10 @@
       <c r="W63" s="18">
         <v>16.460595483990929</v>
       </c>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="9"/>
+      <c r="X63" s="18">
+        <v>12.194992248517551</v>
+      </c>
+      <c r="Y63" s="18"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -27686,8 +27735,10 @@
       <c r="W65" s="18">
         <v>51.183069815717545</v>
       </c>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="9"/>
+      <c r="X65" s="18">
+        <v>-17.306061113752108</v>
+      </c>
+      <c r="Y65" s="18"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -27779,6 +27830,7 @@
       <c r="V66" s="13"/>
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
     </row>
     <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -27979,7 +28031,7 @@
     </row>
     <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27990,7 +28042,7 @@
     </row>
     <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28026,6 +28078,7 @@
       <c r="V78" s="16"/>
       <c r="W78" s="16"/>
       <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
     </row>
     <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -28097,7 +28150,10 @@
       <c r="W79" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="X79" s="6"/>
+      <c r="X79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -28172,8 +28228,10 @@
       <c r="W81" s="18">
         <v>9.4005245558434609</v>
       </c>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="9"/>
+      <c r="X81" s="18">
+        <v>1.2439130338016753</v>
+      </c>
+      <c r="Y81" s="18"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
@@ -28310,8 +28368,10 @@
       <c r="W82" s="18">
         <v>-6.4711938816234635</v>
       </c>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="9"/>
+      <c r="X82" s="18">
+        <v>-24.227542053061626</v>
+      </c>
+      <c r="Y82" s="18"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
@@ -28448,8 +28508,10 @@
       <c r="W83" s="18">
         <v>24.085371875698883</v>
       </c>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="9"/>
+      <c r="X83" s="18">
+        <v>7.1953418594516165</v>
+      </c>
+      <c r="Y83" s="18"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
@@ -28586,8 +28648,10 @@
       <c r="W84" s="18">
         <v>-21.068508238578559</v>
       </c>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="9"/>
+      <c r="X84" s="18">
+        <v>18.705733144591591</v>
+      </c>
+      <c r="Y84" s="18"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -28724,8 +28788,10 @@
       <c r="W85" s="18">
         <v>44.131123886993237</v>
       </c>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="9"/>
+      <c r="X85" s="18">
+        <v>1.2792920066720086</v>
+      </c>
+      <c r="Y85" s="18"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
@@ -28862,8 +28928,10 @@
       <c r="W86" s="18">
         <v>10.365956312941677</v>
       </c>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="9"/>
+      <c r="X86" s="18">
+        <v>7.3280538543107667</v>
+      </c>
+      <c r="Y86" s="18"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -29091,8 +29159,10 @@
       <c r="W88" s="18">
         <v>5.3194030538131756</v>
       </c>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="9"/>
+      <c r="X88" s="18">
+        <v>1.9062741502379623</v>
+      </c>
+      <c r="Y88" s="18"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -29184,6 +29254,7 @@
       <c r="V89" s="13"/>
       <c r="W89" s="13"/>
       <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
     </row>
     <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -29385,7 +29456,7 @@
     </row>
     <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -29396,7 +29467,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29432,6 +29503,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
@@ -29505,6 +29577,9 @@
       </c>
       <c r="X101" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y101" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="102" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29583,7 +29658,9 @@
       <c r="X103" s="19">
         <v>302.01559501047154</v>
       </c>
-      <c r="Y103" s="9"/>
+      <c r="Y103" s="19">
+        <v>154.739300539966</v>
+      </c>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
@@ -29729,7 +29806,9 @@
       <c r="X104" s="19">
         <v>208.87097520384162</v>
       </c>
-      <c r="Y104" s="9"/>
+      <c r="Y104" s="19">
+        <v>121.67882012599725</v>
+      </c>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
@@ -29875,7 +29954,9 @@
       <c r="X105" s="19">
         <v>166.85455408527579</v>
       </c>
-      <c r="Y105" s="9"/>
+      <c r="Y105" s="19">
+        <v>181.37572413245937</v>
+      </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
@@ -30021,7 +30102,9 @@
       <c r="X106" s="19">
         <v>218.08391439751861</v>
       </c>
-      <c r="Y106" s="9"/>
+      <c r="Y106" s="19">
+        <v>195.59091820464644</v>
+      </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -30167,7 +30250,9 @@
       <c r="X107" s="19">
         <v>160.92532531955922</v>
       </c>
-      <c r="Y107" s="9"/>
+      <c r="Y107" s="19">
+        <v>162.42840702935041</v>
+      </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -30313,7 +30398,9 @@
       <c r="X108" s="19">
         <v>111.62180525583898</v>
       </c>
-      <c r="Y108" s="9"/>
+      <c r="Y108" s="19">
+        <v>116.68344971990186</v>
+      </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -30556,7 +30643,9 @@
       <c r="X110" s="19">
         <v>184.15118370806795</v>
       </c>
-      <c r="Y110" s="9"/>
+      <c r="Y110" s="19">
+        <v>149.43325971210203</v>
+      </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
@@ -30654,6 +30743,7 @@
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
+      <c r="Y111" s="13"/>
     </row>
     <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -30672,7 +30762,7 @@
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30683,7 +30773,7 @@
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30719,6 +30809,7 @@
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
@@ -30792,6 +30883,9 @@
       </c>
       <c r="X124" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y124" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="125" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30870,7 +30964,9 @@
       <c r="X126" s="19">
         <v>25.628944918765264</v>
       </c>
-      <c r="Y126" s="9"/>
+      <c r="Y126" s="19">
+        <v>16.076711986910592</v>
+      </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -31016,7 +31112,9 @@
       <c r="X127" s="19">
         <v>19.747159259043293</v>
       </c>
-      <c r="Y127" s="9"/>
+      <c r="Y127" s="19">
+        <v>10.540937073927514</v>
+      </c>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
@@ -31162,7 +31260,9 @@
       <c r="X128" s="19">
         <v>16.54169719171658</v>
       </c>
-      <c r="Y128" s="9"/>
+      <c r="Y128" s="19">
+        <v>23.308986803777685</v>
+      </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -31308,7 +31408,9 @@
       <c r="X129" s="19">
         <v>14.444433227753489</v>
       </c>
-      <c r="Y129" s="9"/>
+      <c r="Y129" s="19">
+        <v>18.59617280600969</v>
+      </c>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
@@ -31454,7 +31556,9 @@
       <c r="X130" s="19">
         <v>4.9214958463408403</v>
       </c>
-      <c r="Y130" s="9"/>
+      <c r="Y130" s="19">
+        <v>6.0838947216530919</v>
+      </c>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
@@ -31600,7 +31704,9 @@
       <c r="X131" s="19">
         <v>18.716269556380549</v>
       </c>
-      <c r="Y131" s="9"/>
+      <c r="Y131" s="19">
+        <v>25.393296607721418</v>
+      </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -31843,7 +31949,9 @@
       <c r="X133" s="19">
         <v>100</v>
       </c>
-      <c r="Y133" s="9"/>
+      <c r="Y133" s="19">
+        <v>100</v>
+      </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -31941,6 +32049,7 @@
       <c r="V134" s="13"/>
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
+      <c r="Y134" s="13"/>
     </row>
     <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -32153,7 +32262,7 @@
     </row>
     <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32164,7 +32273,7 @@
     </row>
     <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32200,6 +32309,7 @@
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
     </row>
     <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
@@ -32273,6 +32383,9 @@
       </c>
       <c r="X147" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y147" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="148" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32351,7 +32464,9 @@
       <c r="X149" s="19">
         <v>15.627009405974079</v>
       </c>
-      <c r="Y149" s="9"/>
+      <c r="Y149" s="19">
+        <v>15.525438393953351</v>
+      </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
@@ -32497,7 +32612,9 @@
       <c r="X150" s="19">
         <v>17.410091320135102</v>
       </c>
-      <c r="Y150" s="9"/>
+      <c r="Y150" s="19">
+        <v>12.945281567869129</v>
+      </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
@@ -32643,7 +32760,9 @@
       <c r="X151" s="19">
         <v>18.256457758043563</v>
       </c>
-      <c r="Y151" s="9"/>
+      <c r="Y151" s="19">
+        <v>19.203991577897828</v>
+      </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
@@ -32789,7 +32908,9 @@
       <c r="X152" s="19">
         <v>12.19695402217716</v>
       </c>
-      <c r="Y152" s="9"/>
+      <c r="Y152" s="19">
+        <v>14.207646991380402</v>
+      </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
@@ -32935,7 +33056,9 @@
       <c r="X153" s="19">
         <v>5.6318002397591043</v>
       </c>
-      <c r="Y153" s="9"/>
+      <c r="Y153" s="19">
+        <v>5.597150379228891</v>
+      </c>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
@@ -33081,7 +33204,9 @@
       <c r="X154" s="19">
         <v>30.877687253910992</v>
       </c>
-      <c r="Y154" s="9"/>
+      <c r="Y154" s="19">
+        <v>32.520491089670415</v>
+      </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
@@ -33324,7 +33449,9 @@
       <c r="X156" s="19">
         <v>100</v>
       </c>
-      <c r="Y156" s="9"/>
+      <c r="Y156" s="19">
+        <v>100</v>
+      </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
@@ -33422,6 +33549,7 @@
       <c r="V157" s="13"/>
       <c r="W157" s="13"/>
       <c r="X157" s="13"/>
+      <c r="Y157" s="13"/>
     </row>
     <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -33630,9 +33758,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="23" man="1"/>
-    <brk id="92" max="23" man="1"/>
-    <brk id="114" max="23" man="1"/>
+    <brk id="46" max="24" man="1"/>
+    <brk id="92" max="24" man="1"/>
+    <brk id="114" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14A5DD-9F97-4B93-934A-C1294444A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9224C0-77F5-4553-B487-EB4F126B82A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -622,13 +622,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23588,46 +23588,46 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="8.21875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="10"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="8.1796875" style="10" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -23656,7 +23656,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -23733,10 +23733,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>71825.022521769279</v>
       </c>
       <c r="Y12" s="8">
-        <v>37257.692447777554</v>
+        <v>37338.226233539935</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23884,7 +23884,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -24032,7 +24032,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>46358.044668214585</v>
       </c>
       <c r="Y14" s="8">
-        <v>54018.449936250901</v>
+        <v>54126.480717317194</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24180,7 +24180,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>40480.470233402404</v>
       </c>
       <c r="Y15" s="8">
-        <v>43096.529170650174</v>
+        <v>43017.59940863432</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24328,7 +24328,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>13792.47374890589</v>
       </c>
       <c r="Y16" s="8">
-        <v>14099.392873901133</v>
+        <v>14099.392873901132</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24476,7 +24476,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -24547,10 +24547,10 @@
         <v>45038.646238752321</v>
       </c>
       <c r="X17" s="8">
-        <v>52452.275607579031</v>
+        <v>52452.024734011247</v>
       </c>
       <c r="Y17" s="8">
-        <v>58848.826552094353</v>
+        <v>59069.974457865937</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24624,7 +24624,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -24721,7 +24721,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -24792,10 +24792,10 @@
         <v>185371.03875113939</v>
       </c>
       <c r="X19" s="12">
-        <v>280249.62693325587</v>
+        <v>280249.3760596881</v>
       </c>
       <c r="Y19" s="12">
-        <v>231749.45522512431</v>
+        <v>232080.23793570872</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -24869,7 +24869,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -24896,12 +24896,12 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -24998,7 +24998,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -25095,39 +25095,39 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -25156,7 +25156,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -25233,10 +25233,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -25310,7 +25310,7 @@
         <v>23781.891964644725</v>
       </c>
       <c r="Y35" s="8">
-        <v>24077.718018477572</v>
+        <v>24191.278220512726</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25384,7 +25384,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -25532,7 +25532,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>27783.505773850189</v>
       </c>
       <c r="Y37" s="8">
-        <v>29782.623994819187</v>
+        <v>29790.829426211243</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -25680,7 +25680,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>18561.878048289011</v>
       </c>
       <c r="Y38" s="8">
-        <v>22034.013422626478</v>
+        <v>21992.629915083504</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25828,7 +25828,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>8570.7291388209615</v>
       </c>
       <c r="Y39" s="8">
-        <v>8680.373791607406</v>
+        <v>8680.3737916074042</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -25976,7 +25976,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -26047,10 +26047,10 @@
         <v>42577.500398384975</v>
       </c>
       <c r="X40" s="8">
-        <v>46991.065488824133</v>
+        <v>46989.703987333371</v>
       </c>
       <c r="Y40" s="8">
-        <v>50434.596074559609</v>
+        <v>50423.427027940939</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -26124,7 +26124,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -26221,7 +26221,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
@@ -26292,10 +26292,10 @@
         <v>144498.100946113</v>
       </c>
       <c r="X42" s="12">
-        <v>152184.53734054259</v>
+        <v>152183.17583905184</v>
       </c>
       <c r="Y42" s="12">
-        <v>155085.5918365246</v>
+        <v>155154.80491579018</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -26369,7 +26369,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -26396,12 +26396,12 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -26498,7 +26498,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -26595,39 +26595,39 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="16" t="s">
         <v>9</v>
@@ -26656,7 +26656,7 @@
       <c r="X55" s="16"/>
       <c r="Y55" s="16"/>
     </row>
-    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
@@ -26731,10 +26731,10 @@
       </c>
       <c r="Y56" s="17"/>
     </row>
-    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -26805,7 +26805,7 @@
         <v>202.26099495722411</v>
       </c>
       <c r="X58" s="18">
-        <v>-48.127141294685693</v>
+        <v>-48.015016323561646</v>
       </c>
       <c r="Y58" s="18"/>
       <c r="Z58" s="9"/>
@@ -26874,7 +26874,7 @@
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
     </row>
-    <row r="59" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -27014,7 +27014,7 @@
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
     </row>
-    <row r="60" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -27085,7 +27085,7 @@
         <v>25.608817573417369</v>
       </c>
       <c r="X60" s="18">
-        <v>16.524435667772423</v>
+        <v>16.75747134009093</v>
       </c>
       <c r="Y60" s="18"/>
       <c r="Z60" s="9"/>
@@ -27154,7 +27154,7 @@
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
     </row>
-    <row r="61" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>20.231388613977884</v>
       </c>
       <c r="X61" s="18">
-        <v>6.4625211173785431</v>
+        <v>6.2675387924184776</v>
       </c>
       <c r="Y61" s="18"/>
       <c r="Z61" s="9"/>
@@ -27294,7 +27294,7 @@
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
     </row>
-    <row r="62" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>27.694541446426669</v>
       </c>
       <c r="X62" s="18">
-        <v>2.2252652467044953</v>
+        <v>2.2252652467044811</v>
       </c>
       <c r="Y62" s="18"/>
       <c r="Z62" s="9"/>
@@ -27434,7 +27434,7 @@
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
     </row>
-    <row r="63" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -27502,10 +27502,10 @@
         <v>6.7291429121049191</v>
       </c>
       <c r="W63" s="18">
-        <v>16.460595483990929</v>
+        <v>16.460038465544031</v>
       </c>
       <c r="X63" s="18">
-        <v>12.194992248517551</v>
+        <v>12.617148255791633</v>
       </c>
       <c r="Y63" s="18"/>
       <c r="Z63" s="9"/>
@@ -27574,7 +27574,7 @@
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
     </row>
-    <row r="64" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -27665,7 +27665,7 @@
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
     </row>
-    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>1</v>
       </c>
@@ -27733,10 +27733,10 @@
         <v>35.247783658170277</v>
       </c>
       <c r="W65" s="18">
-        <v>51.183069815717545</v>
+        <v>51.182934479815287</v>
       </c>
       <c r="X65" s="18">
-        <v>-17.306061113752108</v>
+        <v>-17.187955527765467</v>
       </c>
       <c r="Y65" s="18"/>
       <c r="Z65" s="9"/>
@@ -27805,7 +27805,7 @@
       <c r="CK65" s="9"/>
       <c r="CL65" s="9"/>
     </row>
-    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -27832,12 +27832,12 @@
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -27928,7 +27928,7 @@
       <c r="CK68" s="9"/>
       <c r="CL68" s="9"/>
     </row>
-    <row r="69" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -28019,39 +28019,39 @@
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
     </row>
-    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="16" t="s">
         <v>9</v>
@@ -28080,7 +28080,7 @@
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
     </row>
-    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>8</v>
       </c>
@@ -28155,10 +28155,10 @@
       </c>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>9.4005245558434609</v>
       </c>
       <c r="X81" s="18">
-        <v>1.2439130338016753</v>
+        <v>1.7214200471375989</v>
       </c>
       <c r="Y81" s="18"/>
       <c r="Z81" s="9"/>
@@ -28298,7 +28298,7 @@
       <c r="CK81" s="9"/>
       <c r="CL81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -28438,7 +28438,7 @@
       <c r="CK82" s="9"/>
       <c r="CL82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>24.085371875698883</v>
       </c>
       <c r="X83" s="18">
-        <v>7.1953418594516165</v>
+        <v>7.2248753224308615</v>
       </c>
       <c r="Y83" s="18"/>
       <c r="Z83" s="9"/>
@@ -28578,7 +28578,7 @@
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -28649,7 +28649,7 @@
         <v>-21.068508238578559</v>
       </c>
       <c r="X84" s="18">
-        <v>18.705733144591591</v>
+        <v>18.482784219728956</v>
       </c>
       <c r="Y84" s="18"/>
       <c r="Z84" s="9"/>
@@ -28718,7 +28718,7 @@
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -28789,7 +28789,7 @@
         <v>44.131123886993237</v>
       </c>
       <c r="X85" s="18">
-        <v>1.2792920066720086</v>
+        <v>1.2792920066719802</v>
       </c>
       <c r="Y85" s="18"/>
       <c r="Z85" s="9"/>
@@ -28858,7 +28858,7 @@
       <c r="CK85" s="9"/>
       <c r="CL85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -28926,10 +28926,10 @@
         <v>12.276032399553728</v>
       </c>
       <c r="W86" s="18">
-        <v>10.365956312941677</v>
+        <v>10.362758611155471</v>
       </c>
       <c r="X86" s="18">
-        <v>7.3280538543107667</v>
+        <v>7.3073944912127331</v>
       </c>
       <c r="Y86" s="18"/>
       <c r="Z86" s="9"/>
@@ -28998,7 +28998,7 @@
       <c r="CK86" s="9"/>
       <c r="CL86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -29089,7 +29089,7 @@
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>1</v>
       </c>
@@ -29157,10 +29157,10 @@
         <v>5.0948590347841218</v>
       </c>
       <c r="W88" s="18">
-        <v>5.3194030538131756</v>
+        <v>5.3184608258656709</v>
       </c>
       <c r="X88" s="18">
-        <v>1.9062741502379623</v>
+        <v>1.9526659634709631</v>
       </c>
       <c r="Y88" s="18"/>
       <c r="Z88" s="9"/>
@@ -29229,7 +29229,7 @@
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
     </row>
-    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -29256,12 +29256,12 @@
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
     </row>
-    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -29352,7 +29352,7 @@
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -29449,34 +29449,34 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>9</v>
@@ -29505,7 +29505,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
@@ -29582,10 +29582,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>302.01559501047154</v>
       </c>
       <c r="Y103" s="19">
-        <v>154.739300539966</v>
+        <v>154.34581791498476</v>
       </c>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
@@ -29733,7 +29733,7 @@
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
     </row>
-    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -29881,7 +29881,7 @@
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
     </row>
-    <row r="105" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -29955,7 +29955,7 @@
         <v>166.85455408527579</v>
       </c>
       <c r="Y105" s="19">
-        <v>181.37572413245937</v>
+        <v>181.68839793931485</v>
       </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
@@ -30029,7 +30029,7 @@
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -30103,7 +30103,7 @@
         <v>218.08391439751861</v>
       </c>
       <c r="Y106" s="19">
-        <v>195.59091820464644</v>
+        <v>195.60006954480227</v>
       </c>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -30177,7 +30177,7 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -30325,7 +30325,7 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -30396,10 +30396,10 @@
         <v>105.7803906226038</v>
       </c>
       <c r="X108" s="19">
-        <v>111.62180525583898</v>
+        <v>111.62450554732226</v>
       </c>
       <c r="Y108" s="19">
-        <v>116.68344971990186</v>
+        <v>117.14787736488779</v>
       </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -30473,7 +30473,7 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -30570,7 +30570,7 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>1</v>
       </c>
@@ -30641,10 +30641,10 @@
         <v>128.2861418505901</v>
       </c>
       <c r="X110" s="19">
-        <v>184.15118370806795</v>
+        <v>184.15266636049074</v>
       </c>
       <c r="Y110" s="19">
-        <v>149.43325971210203</v>
+        <v>149.57979423303686</v>
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
@@ -30718,7 +30718,7 @@
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -30745,44 +30745,44 @@
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>9</v>
@@ -30811,7 +30811,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -30888,10 +30888,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -30962,10 +30962,10 @@
         <v>12.81893010874661</v>
       </c>
       <c r="X126" s="19">
-        <v>25.628944918765264</v>
+        <v>25.628967861277889</v>
       </c>
       <c r="Y126" s="19">
-        <v>16.076711986910592</v>
+        <v>16.088498773378298</v>
       </c>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -31039,7 +31039,7 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -31110,10 +31110,10 @@
         <v>18.985262730698906</v>
       </c>
       <c r="X127" s="19">
-        <v>19.747159259043293</v>
+        <v>19.747176936300477</v>
       </c>
       <c r="Y127" s="19">
-        <v>10.540937073927514</v>
+        <v>10.525913133205862</v>
       </c>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
@@ -31187,7 +31187,7 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -31258,10 +31258,10 @@
         <v>19.909625850462561</v>
       </c>
       <c r="X128" s="19">
-        <v>16.54169719171658</v>
+        <v>16.541711999509019</v>
       </c>
       <c r="Y128" s="19">
-        <v>23.308986803777685</v>
+        <v>23.322313523442443</v>
       </c>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -31335,7 +31335,7 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -31406,10 +31406,10 @@
         <v>18.162925524641629</v>
       </c>
       <c r="X129" s="19">
-        <v>14.444433227753489</v>
+        <v>14.444446158117685</v>
       </c>
       <c r="Y129" s="19">
-        <v>18.59617280600969</v>
+        <v>18.535658094486756</v>
       </c>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
@@ -31483,7 +31483,7 @@
       <c r="CQ129" s="9"/>
       <c r="CR129" s="9"/>
     </row>
-    <row r="130" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -31554,10 +31554,10 @@
         <v>5.8267709935531649</v>
       </c>
       <c r="X130" s="19">
-        <v>4.9214958463408403</v>
+        <v>4.9215002519642868</v>
       </c>
       <c r="Y130" s="19">
-        <v>6.0838947216530919</v>
+        <v>6.0752233793413168</v>
       </c>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
@@ -31631,7 +31631,7 @@
       <c r="CQ130" s="9"/>
       <c r="CR130" s="9"/>
     </row>
-    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -31702,10 +31702,10 @@
         <v>24.296484791897132</v>
       </c>
       <c r="X131" s="19">
-        <v>18.716269556380549</v>
+        <v>18.716196792830647</v>
       </c>
       <c r="Y131" s="19">
-        <v>25.393296607721418</v>
+        <v>25.452393096145308</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -31779,7 +31779,7 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -31876,7 +31876,7 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>1</v>
       </c>
@@ -32024,7 +32024,7 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -32051,12 +32051,12 @@
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
     </row>
-    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -32153,7 +32153,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -32250,39 +32250,39 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
         <v>9</v>
@@ -32311,7 +32311,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>8</v>
       </c>
@@ -32388,10 +32388,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
@@ -32462,10 +32462,10 @@
         <v>15.044053114328548</v>
       </c>
       <c r="X149" s="19">
-        <v>15.627009405974079</v>
+        <v>15.627149212470329</v>
       </c>
       <c r="Y149" s="19">
-        <v>15.525438393953351</v>
+        <v>15.591704190948178</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
@@ -32539,7 +32539,7 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -32610,10 +32610,10 @@
         <v>19.60487363249613</v>
       </c>
       <c r="X150" s="19">
-        <v>17.410091320135102</v>
+        <v>17.410247078911691</v>
       </c>
       <c r="Y150" s="19">
-        <v>12.945281567869129</v>
+        <v>12.939506801178799</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
@@ -32687,7 +32687,7 @@
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
     </row>
-    <row r="151" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -32758,10 +32758,10 @@
         <v>15.495454491448088</v>
       </c>
       <c r="X151" s="19">
-        <v>18.256457758043563</v>
+        <v>18.25662108880806</v>
       </c>
       <c r="Y151" s="19">
-        <v>19.203991577897828</v>
+        <v>19.200713405156954</v>
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
@@ -32835,7 +32835,7 @@
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
     </row>
-    <row r="152" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>4</v>
       </c>
@@ -32906,10 +32906,10 @@
         <v>16.274567831218327</v>
       </c>
       <c r="X152" s="19">
-        <v>12.19695402217716</v>
+        <v>12.197063141802191</v>
       </c>
       <c r="Y152" s="19">
-        <v>14.207646991380402</v>
+        <v>14.17463669721343</v>
       </c>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
@@ -32983,7 +32983,7 @@
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
     </row>
-    <row r="153" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -33054,10 +33054,10 @@
         <v>4.115265484468182</v>
       </c>
       <c r="X153" s="19">
-        <v>5.6318002397591043</v>
+        <v>5.6318506244641142</v>
       </c>
       <c r="Y153" s="19">
-        <v>5.597150379228891</v>
+        <v>5.5946535438065563</v>
       </c>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
@@ -33131,7 +33131,7 @@
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
     </row>
-    <row r="154" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
@@ -33202,10 +33202,10 @@
         <v>29.465785446040709</v>
       </c>
       <c r="X154" s="19">
-        <v>30.877687253910992</v>
+        <v>30.877068853543605</v>
       </c>
       <c r="Y154" s="19">
-        <v>32.520491089670415</v>
+        <v>32.498785361696086</v>
       </c>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
@@ -33279,7 +33279,7 @@
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
     </row>
-    <row r="155" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -33376,7 +33376,7 @@
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
     </row>
-    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>1</v>
       </c>
@@ -33524,7 +33524,7 @@
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
     </row>
-    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -33551,12 +33551,12 @@
       <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
@@ -33654,7 +33654,7 @@
       <c r="CQ159" s="20"/>
       <c r="CR159" s="20"/>
     </row>
-    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9224C0-77F5-4553-B487-EB4F126B82A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF8CAA-0143-47D6-BCA0-82072354CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$Y$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$Z$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -721,8 +724,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -764,10 +769,12 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{40629451-A83F-4EEA-BEFD-A3A894E61A6A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9C7F51BC-3441-449C-80EF-173BCCCC4E66}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23588,46 +23595,46 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="8.1796875" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="10"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="26" width="8.21875" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -23655,8 +23662,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -23732,11 +23740,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -23812,7 +23823,9 @@
       <c r="Y12" s="8">
         <v>37338.226233539935</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>34508.361436579245</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23884,7 +23897,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -23960,7 +23973,9 @@
       <c r="Y13" s="8">
         <v>24428.564244450175</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>20436.815164513264</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24032,7 +24047,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -24108,7 +24123,9 @@
       <c r="Y14" s="8">
         <v>54126.480717317194</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>64993.270440910186</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -24180,7 +24197,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24256,7 +24273,9 @@
       <c r="Y15" s="8">
         <v>43017.59940863432</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="8">
+        <v>34584.413039275736</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -24328,7 +24347,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -24404,7 +24423,9 @@
       <c r="Y16" s="8">
         <v>14099.392873901132</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="8">
+        <v>16900.233924583295</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -24476,7 +24497,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -24552,7 +24573,9 @@
       <c r="Y17" s="8">
         <v>59069.974457865937</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="8">
+        <v>63257.259571918228</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -24624,7 +24647,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -24721,7 +24744,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -24797,7 +24820,9 @@
       <c r="Y19" s="12">
         <v>232080.23793570872</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="12">
+        <v>234680.35357777996</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -24869,7 +24894,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -24895,13 +24920,14 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -24998,7 +25024,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -25095,39 +25121,39 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -25155,8 +25181,9 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -25232,11 +25259,14 @@
       <c r="Y33" s="15">
         <v>2023</v>
       </c>
+      <c r="Z33" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -25312,7 +25342,9 @@
       <c r="Y35" s="8">
         <v>24191.278220512726</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="8">
+        <v>26498.668136969136</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -25384,7 +25416,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -25460,7 +25492,9 @@
       <c r="Y36" s="8">
         <v>20076.26653443437</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="8">
+        <v>17874.80458516434</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -25532,7 +25566,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -25608,7 +25642,9 @@
       <c r="Y37" s="8">
         <v>29790.829426211243</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="8">
+        <v>28616.091205579651</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -25680,7 +25716,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -25756,7 +25792,9 @@
       <c r="Y38" s="8">
         <v>21992.629915083504</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="8">
+        <v>21344.161131554007</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -25828,7 +25866,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -25904,7 +25942,9 @@
       <c r="Y39" s="8">
         <v>8680.3737916074042</v>
       </c>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="8">
+        <v>8929.362175458984</v>
+      </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -25976,7 +26016,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -26052,7 +26092,9 @@
       <c r="Y40" s="8">
         <v>50423.427027940939</v>
       </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="8">
+        <v>53909.853586697485</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -26124,7 +26166,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -26149,7 +26191,7 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -26221,7 +26263,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
@@ -26297,7 +26339,9 @@
       <c r="Y42" s="12">
         <v>155154.80491579018</v>
       </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="12">
+        <v>157172.9408214236</v>
+      </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -26369,7 +26413,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -26395,13 +26439,14 @@
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -26498,7 +26543,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -26595,39 +26640,39 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="16" t="s">
         <v>9</v>
@@ -26655,8 +26700,9 @@
       <c r="W55" s="16"/>
       <c r="X55" s="16"/>
       <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
     </row>
-    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
@@ -26729,12 +26775,15 @@
       <c r="X56" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Y56" s="17"/>
+      <c r="Y56" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="17"/>
     </row>
-    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -26807,8 +26856,10 @@
       <c r="X58" s="18">
         <v>-48.015016323561646</v>
       </c>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="9"/>
+      <c r="Y58" s="18">
+        <v>-7.5790016892090506</v>
+      </c>
+      <c r="Z58" s="18"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -26874,7 +26925,7 @@
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
     </row>
-    <row r="59" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -26947,8 +26998,10 @@
       <c r="X59" s="18">
         <v>-55.858379690944105</v>
       </c>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="9"/>
+      <c r="Y59" s="18">
+        <v>-16.340498115208632</v>
+      </c>
+      <c r="Z59" s="18"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -27014,7 +27067,7 @@
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
     </row>
-    <row r="60" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -27087,8 +27140,10 @@
       <c r="X60" s="18">
         <v>16.75747134009093</v>
       </c>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="9"/>
+      <c r="Y60" s="18">
+        <v>20.076660406476933</v>
+      </c>
+      <c r="Z60" s="18"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -27154,7 +27209,7 @@
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
     </row>
-    <row r="61" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -27227,8 +27282,10 @@
       <c r="X61" s="18">
         <v>6.2675387924184776</v>
       </c>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="9"/>
+      <c r="Y61" s="18">
+        <v>-19.604037615511174</v>
+      </c>
+      <c r="Z61" s="18"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -27294,7 +27351,7 @@
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
     </row>
-    <row r="62" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -27367,8 +27424,10 @@
       <c r="X62" s="18">
         <v>2.2252652467044811</v>
       </c>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="9"/>
+      <c r="Y62" s="18">
+        <v>19.864976284664706</v>
+      </c>
+      <c r="Z62" s="18"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -27434,7 +27493,7 @@
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
     </row>
-    <row r="63" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -27507,8 +27566,10 @@
       <c r="X63" s="18">
         <v>12.617148255791633</v>
       </c>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="9"/>
+      <c r="Y63" s="18">
+        <v>7.0886861768309188</v>
+      </c>
+      <c r="Z63" s="18"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -27574,7 +27635,7 @@
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
     </row>
-    <row r="64" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -27665,7 +27726,7 @@
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
     </row>
-    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>1</v>
       </c>
@@ -27738,8 +27799,10 @@
       <c r="X65" s="18">
         <v>-17.187955527765467</v>
       </c>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="9"/>
+      <c r="Y65" s="18">
+        <v>1.1203520235926021</v>
+      </c>
+      <c r="Z65" s="18"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -27805,7 +27868,7 @@
       <c r="CK65" s="9"/>
       <c r="CL65" s="9"/>
     </row>
-    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:90" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -27831,13 +27894,14 @@
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -27928,7 +27992,7 @@
       <c r="CK68" s="9"/>
       <c r="CL68" s="9"/>
     </row>
-    <row r="69" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -28019,39 +28083,39 @@
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
     </row>
-    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="16" t="s">
         <v>9</v>
@@ -28079,8 +28143,9 @@
       <c r="W78" s="16"/>
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
     </row>
-    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>8</v>
       </c>
@@ -28153,12 +28218,15 @@
       <c r="X79" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y79" s="6"/>
+      <c r="Y79" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -28231,8 +28299,10 @@
       <c r="X81" s="18">
         <v>1.7214200471375989</v>
       </c>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="9"/>
+      <c r="Y81" s="18">
+        <v>9.53810664911407</v>
+      </c>
+      <c r="Z81" s="18"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
@@ -28298,7 +28368,7 @@
       <c r="CK81" s="9"/>
       <c r="CL81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -28371,8 +28441,10 @@
       <c r="X82" s="18">
         <v>-24.227542053061626</v>
       </c>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="9"/>
+      <c r="Y82" s="18">
+        <v>-10.965494732270713</v>
+      </c>
+      <c r="Z82" s="18"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
@@ -28438,7 +28510,7 @@
       <c r="CK82" s="9"/>
       <c r="CL82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -28511,8 +28583,10 @@
       <c r="X83" s="18">
         <v>7.2248753224308615</v>
       </c>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="9"/>
+      <c r="Y83" s="18">
+        <v>-3.9432880629970128</v>
+      </c>
+      <c r="Z83" s="18"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
@@ -28578,7 +28652,7 @@
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -28651,8 +28725,10 @@
       <c r="X84" s="18">
         <v>18.482784219728956</v>
       </c>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="9"/>
+      <c r="Y84" s="18">
+        <v>-2.9485731630701792</v>
+      </c>
+      <c r="Z84" s="18"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
@@ -28718,7 +28794,7 @@
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -28791,8 +28867,10 @@
       <c r="X85" s="18">
         <v>1.2792920066719802</v>
       </c>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="9"/>
+      <c r="Y85" s="18">
+        <v>2.8684062441218146</v>
+      </c>
+      <c r="Z85" s="18"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
@@ -28858,7 +28936,7 @@
       <c r="CK85" s="9"/>
       <c r="CL85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -28931,8 +29009,10 @@
       <c r="X86" s="18">
         <v>7.3073944912127331</v>
       </c>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="9"/>
+      <c r="Y86" s="18">
+        <v>6.9142990951896763</v>
+      </c>
+      <c r="Z86" s="18"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
@@ -28998,7 +29078,7 @@
       <c r="CK86" s="9"/>
       <c r="CL86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -29089,7 +29169,7 @@
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>1</v>
       </c>
@@ -29162,8 +29242,10 @@
       <c r="X88" s="18">
         <v>1.9526659634709631</v>
       </c>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="9"/>
+      <c r="Y88" s="18">
+        <v>1.3007240779483169</v>
+      </c>
+      <c r="Z88" s="18"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -29229,7 +29311,7 @@
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
     </row>
-    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -29255,13 +29337,14 @@
       <c r="W89" s="13"/>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
     </row>
-    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -29352,7 +29435,7 @@
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -29449,34 +29532,34 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>9</v>
@@ -29504,8 +29587,9 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
@@ -29581,11 +29665,14 @@
       <c r="Y101" s="15">
         <v>2023</v>
       </c>
+      <c r="Z101" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -29661,7 +29748,9 @@
       <c r="Y103" s="19">
         <v>154.34581791498476</v>
       </c>
-      <c r="Z103" s="9"/>
+      <c r="Z103" s="19">
+        <v>130.22677690142294</v>
+      </c>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
@@ -29733,7 +29822,7 @@
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
     </row>
-    <row r="104" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -29809,7 +29898,9 @@
       <c r="Y104" s="19">
         <v>121.67882012599725</v>
       </c>
-      <c r="Z104" s="9"/>
+      <c r="Z104" s="19">
+        <v>114.33308301157783</v>
+      </c>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
@@ -29881,7 +29972,7 @@
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
     </row>
-    <row r="105" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -29957,7 +30048,9 @@
       <c r="Y105" s="19">
         <v>181.68839793931485</v>
       </c>
-      <c r="Z105" s="9"/>
+      <c r="Z105" s="19">
+        <v>227.1214121243701</v>
+      </c>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
@@ -30029,7 +30122,7 @@
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -30105,7 +30198,9 @@
       <c r="Y106" s="19">
         <v>195.60006954480227</v>
       </c>
-      <c r="Z106" s="9"/>
+      <c r="Z106" s="19">
+        <v>162.03219618759383</v>
+      </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -30177,7 +30272,7 @@
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -30253,7 +30348,9 @@
       <c r="Y107" s="19">
         <v>162.42840702935041</v>
       </c>
-      <c r="Z107" s="9"/>
+      <c r="Z107" s="19">
+        <v>189.26585787987253</v>
+      </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -30325,7 +30422,7 @@
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -30401,7 +30498,9 @@
       <c r="Y108" s="19">
         <v>117.14787736488779</v>
       </c>
-      <c r="Z108" s="9"/>
+      <c r="Z108" s="19">
+        <v>117.33895635644475</v>
+      </c>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
@@ -30473,7 +30572,7 @@
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
     </row>
-    <row r="109" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -30570,7 +30669,7 @@
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
     </row>
-    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>1</v>
       </c>
@@ -30646,7 +30745,9 @@
       <c r="Y110" s="19">
         <v>149.57979423303686</v>
       </c>
-      <c r="Z110" s="9"/>
+      <c r="Z110" s="19">
+        <v>149.3134583798483</v>
+      </c>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
@@ -30718,7 +30819,7 @@
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -30744,45 +30845,46 @@
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
+      <c r="Z111" s="13"/>
     </row>
-    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>9</v>
@@ -30810,8 +30912,9 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>8</v>
       </c>
@@ -30887,11 +30990,14 @@
       <c r="Y124" s="15">
         <v>2023</v>
       </c>
+      <c r="Z124" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -30967,7 +31073,9 @@
       <c r="Y126" s="19">
         <v>16.088498773378298</v>
       </c>
-      <c r="Z126" s="9"/>
+      <c r="Z126" s="19">
+        <v>14.70441002431086</v>
+      </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
@@ -31039,7 +31147,7 @@
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -31115,7 +31223,9 @@
       <c r="Y127" s="19">
         <v>10.525913133205862</v>
       </c>
-      <c r="Z127" s="9"/>
+      <c r="Z127" s="19">
+        <v>8.7083621841143621</v>
+      </c>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
@@ -31187,7 +31297,7 @@
       <c r="CQ127" s="9"/>
       <c r="CR127" s="9"/>
     </row>
-    <row r="128" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -31263,7 +31373,9 @@
       <c r="Y128" s="19">
         <v>23.322313523442443</v>
       </c>
-      <c r="Z128" s="9"/>
+      <c r="Z128" s="19">
+        <v>27.69438065439488</v>
+      </c>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
@@ -31335,7 +31447,7 @@
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
     </row>
-    <row r="129" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -31411,7 +31523,9 @@
       <c r="Y129" s="19">
         <v>18.535658094486756</v>
       </c>
-      <c r="Z129" s="9"/>
+      <c r="Z129" s="19">
+        <v>14.736816487628756</v>
+      </c>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
@@ -31483,7 +31597,7 @@
       <c r="CQ129" s="9"/>
       <c r="CR129" s="9"/>
     </row>
-    <row r="130" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -31559,7 +31673,9 @@
       <c r="Y130" s="19">
         <v>6.0752233793413168</v>
       </c>
-      <c r="Z130" s="9"/>
+      <c r="Z130" s="19">
+        <v>7.2013842091737184</v>
+      </c>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
@@ -31631,7 +31747,7 @@
       <c r="CQ130" s="9"/>
       <c r="CR130" s="9"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -31707,7 +31823,9 @@
       <c r="Y131" s="19">
         <v>25.452393096145308</v>
       </c>
-      <c r="Z131" s="9"/>
+      <c r="Z131" s="19">
+        <v>26.954646440377427</v>
+      </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
@@ -31779,7 +31897,7 @@
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
     </row>
-    <row r="132" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -31876,7 +31994,7 @@
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
     </row>
-    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>1</v>
       </c>
@@ -31952,7 +32070,9 @@
       <c r="Y133" s="19">
         <v>100</v>
       </c>
-      <c r="Z133" s="9"/>
+      <c r="Z133" s="19">
+        <v>100</v>
+      </c>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
@@ -32024,7 +32144,7 @@
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
     </row>
-    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -32050,13 +32170,14 @@
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
+      <c r="Z134" s="13"/>
     </row>
-    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -32153,7 +32274,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -32250,39 +32371,39 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="5" t="s">
         <v>9</v>
@@ -32310,8 +32431,9 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>8</v>
       </c>
@@ -32387,11 +32509,14 @@
       <c r="Y147" s="15">
         <v>2023</v>
       </c>
+      <c r="Z147" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
@@ -32467,7 +32592,9 @@
       <c r="Y149" s="19">
         <v>15.591704190948178</v>
       </c>
-      <c r="Z149" s="9"/>
+      <c r="Z149" s="19">
+        <v>16.859561193218578</v>
+      </c>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
@@ -32539,7 +32666,7 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -32615,7 +32742,9 @@
       <c r="Y150" s="19">
         <v>12.939506801178799</v>
       </c>
-      <c r="Z150" s="9"/>
+      <c r="Z150" s="19">
+        <v>11.372698437623113</v>
+      </c>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
@@ -32687,7 +32816,7 @@
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
     </row>
-    <row r="151" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -32763,7 +32892,9 @@
       <c r="Y151" s="19">
         <v>19.200713405156954</v>
       </c>
-      <c r="Z151" s="9"/>
+      <c r="Z151" s="19">
+        <v>18.206754328082859</v>
+      </c>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
@@ -32835,7 +32966,7 @@
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
     </row>
-    <row r="152" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>4</v>
       </c>
@@ -32911,7 +33042,9 @@
       <c r="Y152" s="19">
         <v>14.17463669721343</v>
       </c>
-      <c r="Z152" s="9"/>
+      <c r="Z152" s="19">
+        <v>13.580048206774197</v>
+      </c>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
@@ -32983,7 +33116,7 @@
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
     </row>
-    <row r="153" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -33059,7 +33192,9 @@
       <c r="Y153" s="19">
         <v>5.5946535438065563</v>
       </c>
-      <c r="Z153" s="9"/>
+      <c r="Z153" s="19">
+        <v>5.6812337599538374</v>
+      </c>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
@@ -33131,7 +33266,7 @@
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
     </row>
-    <row r="154" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
@@ -33207,7 +33342,9 @@
       <c r="Y154" s="19">
         <v>32.498785361696086</v>
       </c>
-      <c r="Z154" s="9"/>
+      <c r="Z154" s="19">
+        <v>34.299704074347417</v>
+      </c>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
@@ -33279,7 +33416,7 @@
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
     </row>
-    <row r="155" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -33376,7 +33513,7 @@
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
     </row>
-    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>1</v>
       </c>
@@ -33452,7 +33589,9 @@
       <c r="Y156" s="19">
         <v>100</v>
       </c>
-      <c r="Z156" s="9"/>
+      <c r="Z156" s="19">
+        <v>100</v>
+      </c>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
@@ -33524,7 +33663,7 @@
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
     </row>
-    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -33550,13 +33689,14 @@
       <c r="W157" s="13"/>
       <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
+      <c r="Z157" s="13"/>
     </row>
-    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
@@ -33654,7 +33794,7 @@
       <c r="CQ159" s="20"/>
       <c r="CR159" s="20"/>
     </row>
-    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:96" s="21" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
@@ -33758,9 +33898,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="24" man="1"/>
-    <brk id="92" max="24" man="1"/>
-    <brk id="114" max="24" man="1"/>
+    <brk id="46" max="25" man="1"/>
+    <brk id="92" max="25" man="1"/>
+    <brk id="114" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF8CAA-0143-47D6-BCA0-82072354CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2180D-1A60-484B-A874-97990613A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23590,9 +23590,9 @@
   <dimension ref="A1:CR160"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23821,10 +23821,10 @@
         <v>71825.022521769279</v>
       </c>
       <c r="Y12" s="8">
-        <v>37338.226233539935</v>
+        <v>37307.881236111294</v>
       </c>
       <c r="Z12" s="8">
-        <v>34508.361436579245</v>
+        <v>34369.988174988612</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -24124,7 +24124,7 @@
         <v>54126.480717317194</v>
       </c>
       <c r="Z14" s="8">
-        <v>64993.270440910186</v>
+        <v>65044.216692288828</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24274,7 +24274,7 @@
         <v>43017.59940863432</v>
       </c>
       <c r="Z15" s="8">
-        <v>34584.413039275736</v>
+        <v>34712.466067038935</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24421,10 +24421,10 @@
         <v>13792.47374890589</v>
       </c>
       <c r="Y16" s="8">
-        <v>14099.392873901132</v>
+        <v>14099.392873901133</v>
       </c>
       <c r="Z16" s="8">
-        <v>16900.233924583295</v>
+        <v>15845.929219488527</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24571,10 +24571,10 @@
         <v>52452.024734011247</v>
       </c>
       <c r="Y17" s="8">
-        <v>59069.974457865937</v>
+        <v>59191.385112734606</v>
       </c>
       <c r="Z17" s="8">
-        <v>63257.259571918228</v>
+        <v>63463.198363521995</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -24818,10 +24818,10 @@
         <v>280249.3760596881</v>
       </c>
       <c r="Y19" s="12">
-        <v>232080.23793570872</v>
+        <v>232171.30359314874</v>
       </c>
       <c r="Z19" s="12">
-        <v>234680.35357777996</v>
+        <v>233872.61368184013</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -25340,10 +25340,10 @@
         <v>23781.891964644725</v>
       </c>
       <c r="Y35" s="8">
-        <v>24191.278220512726</v>
+        <v>24160.990726286</v>
       </c>
       <c r="Z35" s="8">
-        <v>26498.668136969136</v>
+        <v>26401.218345692116</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25643,7 +25643,7 @@
         <v>29790.829426211243</v>
       </c>
       <c r="Z37" s="8">
-        <v>28616.091205579651</v>
+        <v>28638.231742390646</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -25793,7 +25793,7 @@
         <v>21992.629915083504</v>
       </c>
       <c r="Z38" s="8">
-        <v>21344.161131554007</v>
+        <v>21430.08373956272</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25940,10 +25940,10 @@
         <v>8570.7291388209615</v>
       </c>
       <c r="Y39" s="8">
-        <v>8680.3737916074042</v>
+        <v>8680.373791607406</v>
       </c>
       <c r="Z39" s="8">
-        <v>8929.362175458984</v>
+        <v>8660.5912946055923</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -26090,10 +26090,10 @@
         <v>46989.703987333371</v>
       </c>
       <c r="Y40" s="8">
-        <v>50423.427027940939</v>
+        <v>50549.973817958948</v>
       </c>
       <c r="Z40" s="8">
-        <v>53909.853586697485</v>
+        <v>54088.562420376264</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -26337,10 +26337,10 @@
         <v>152183.17583905184</v>
       </c>
       <c r="Y42" s="12">
-        <v>155154.80491579018</v>
+        <v>155251.06421158146</v>
       </c>
       <c r="Z42" s="12">
-        <v>157172.9408214236</v>
+        <v>157093.49212779169</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -26854,10 +26854,10 @@
         <v>202.26099495722411</v>
       </c>
       <c r="X58" s="18">
-        <v>-48.015016323561646</v>
+        <v>-48.057264827444037</v>
       </c>
       <c r="Y58" s="18">
-        <v>-7.5790016892090506</v>
+        <v>-7.8747250280163854</v>
       </c>
       <c r="Z58" s="18"/>
       <c r="AA58" s="9"/>
@@ -27141,7 +27141,7 @@
         <v>16.75747134009093</v>
       </c>
       <c r="Y60" s="18">
-        <v>20.076660406476933</v>
+        <v>20.170784854812524</v>
       </c>
       <c r="Z60" s="18"/>
       <c r="AA60" s="9"/>
@@ -27283,7 +27283,7 @@
         <v>6.2675387924184776</v>
       </c>
       <c r="Y61" s="18">
-        <v>-19.604037615511174</v>
+        <v>-19.306361711872782</v>
       </c>
       <c r="Z61" s="18"/>
       <c r="AA61" s="9"/>
@@ -27422,10 +27422,10 @@
         <v>27.694541446426669</v>
       </c>
       <c r="X62" s="18">
-        <v>2.2252652467044811</v>
+        <v>2.2252652467044953</v>
       </c>
       <c r="Y62" s="18">
-        <v>19.864976284664706</v>
+        <v>12.387315973160412</v>
       </c>
       <c r="Z62" s="18"/>
       <c r="AA62" s="9"/>
@@ -27564,10 +27564,10 @@
         <v>16.460038465544031</v>
       </c>
       <c r="X63" s="18">
-        <v>12.617148255791633</v>
+        <v>12.848618166599366</v>
       </c>
       <c r="Y63" s="18">
-        <v>7.0886861768309188</v>
+        <v>7.216950984761354</v>
       </c>
       <c r="Z63" s="18"/>
       <c r="AA63" s="9"/>
@@ -27797,10 +27797,10 @@
         <v>51.182934479815287</v>
       </c>
       <c r="X65" s="18">
-        <v>-17.187955527765467</v>
+        <v>-17.15546101922439</v>
       </c>
       <c r="Y65" s="18">
-        <v>1.1203520235926021</v>
+        <v>0.7327822441281171</v>
       </c>
       <c r="Z65" s="18"/>
       <c r="AA65" s="9"/>
@@ -28297,10 +28297,10 @@
         <v>9.4005245558434609</v>
       </c>
       <c r="X81" s="18">
-        <v>1.7214200471375989</v>
+        <v>1.5940647708132758</v>
       </c>
       <c r="Y81" s="18">
-        <v>9.53810664911407</v>
+        <v>9.2720850928056393</v>
       </c>
       <c r="Z81" s="18"/>
       <c r="AA81" s="9"/>
@@ -28584,7 +28584,7 @@
         <v>7.2248753224308615</v>
       </c>
       <c r="Y83" s="18">
-        <v>-3.9432880629970128</v>
+        <v>-3.86896808857054</v>
       </c>
       <c r="Z83" s="18"/>
       <c r="AA83" s="9"/>
@@ -28726,7 +28726,7 @@
         <v>18.482784219728956</v>
       </c>
       <c r="Y84" s="18">
-        <v>-2.9485731630701792</v>
+        <v>-2.5578849718876313</v>
       </c>
       <c r="Z84" s="18"/>
       <c r="AA84" s="9"/>
@@ -28865,10 +28865,10 @@
         <v>44.131123886993237</v>
       </c>
       <c r="X85" s="18">
-        <v>1.2792920066719802</v>
+        <v>1.2792920066720086</v>
       </c>
       <c r="Y85" s="18">
-        <v>2.8684062441218146</v>
+        <v>-0.22789913748808033</v>
       </c>
       <c r="Z85" s="18"/>
       <c r="AA85" s="9"/>
@@ -29007,10 +29007,10 @@
         <v>10.362758611155471</v>
       </c>
       <c r="X86" s="18">
-        <v>7.3073944912127331</v>
+        <v>7.5767019762143804</v>
       </c>
       <c r="Y86" s="18">
-        <v>6.9142990951896763</v>
+        <v>7.0001789024866952</v>
       </c>
       <c r="Z86" s="18"/>
       <c r="AA86" s="9"/>
@@ -29240,10 +29240,10 @@
         <v>5.3184608258656709</v>
       </c>
       <c r="X88" s="18">
-        <v>1.9526659634709631</v>
+        <v>2.0159182219815079</v>
       </c>
       <c r="Y88" s="18">
-        <v>1.3007240779483169</v>
+        <v>1.1867409254594889</v>
       </c>
       <c r="Z88" s="18"/>
       <c r="AA88" s="9"/>
@@ -29746,10 +29746,10 @@
         <v>302.01559501047154</v>
       </c>
       <c r="Y103" s="19">
-        <v>154.34581791498476</v>
+        <v>154.41370620420008</v>
       </c>
       <c r="Z103" s="19">
-        <v>130.22677690142294</v>
+        <v>130.18334125703998</v>
       </c>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
@@ -30049,7 +30049,7 @@
         <v>181.68839793931485</v>
       </c>
       <c r="Z105" s="19">
-        <v>227.1214121243701</v>
+        <v>227.12371796338812</v>
       </c>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
@@ -30199,7 +30199,7 @@
         <v>195.60006954480227</v>
       </c>
       <c r="Z106" s="19">
-        <v>162.03219618759383</v>
+        <v>161.98007664783506</v>
       </c>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -30349,7 +30349,7 @@
         <v>162.42840702935041</v>
       </c>
       <c r="Z107" s="19">
-        <v>189.26585787987253</v>
+        <v>182.96590475708575</v>
       </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -30496,10 +30496,10 @@
         <v>111.62450554732226</v>
       </c>
       <c r="Y108" s="19">
-        <v>117.14787736488779</v>
+        <v>117.0947888635812</v>
       </c>
       <c r="Z108" s="19">
-        <v>117.33895635644475</v>
+        <v>117.33201165578421</v>
       </c>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -30743,10 +30743,10 @@
         <v>184.15266636049074</v>
       </c>
       <c r="Y110" s="19">
-        <v>149.57979423303686</v>
+        <v>149.54570828367252</v>
       </c>
       <c r="Z110" s="19">
-        <v>149.3134583798483</v>
+        <v>148.87479456602219</v>
       </c>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
@@ -31071,10 +31071,10 @@
         <v>25.628967861277889</v>
       </c>
       <c r="Y126" s="19">
-        <v>16.088498773378298</v>
+        <v>16.069118215181625</v>
       </c>
       <c r="Z126" s="19">
-        <v>14.70441002431086</v>
+        <v>14.696029446930234</v>
       </c>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -31221,10 +31221,10 @@
         <v>19.747176936300477</v>
       </c>
       <c r="Y127" s="19">
-        <v>10.525913133205862</v>
+        <v>10.521784504108306</v>
       </c>
       <c r="Z127" s="19">
-        <v>8.7083621841143621</v>
+        <v>8.7384387777508099</v>
       </c>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
@@ -31371,10 +31371,10 @@
         <v>16.541711999509019</v>
       </c>
       <c r="Y128" s="19">
-        <v>23.322313523442443</v>
+        <v>23.313165701204444</v>
       </c>
       <c r="Z128" s="19">
-        <v>27.69438065439488</v>
+        <v>27.811814161693537</v>
       </c>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -31521,10 +31521,10 @@
         <v>14.444446158117685</v>
       </c>
       <c r="Y129" s="19">
-        <v>18.535658094486756</v>
+        <v>18.528387764931235</v>
       </c>
       <c r="Z129" s="19">
-        <v>14.736816487628756</v>
+        <v>14.842467239136306</v>
       </c>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
@@ -31671,10 +31671,10 @@
         <v>4.9215002519642868</v>
       </c>
       <c r="Y130" s="19">
-        <v>6.0752233793413168</v>
+        <v>6.0728404655075554</v>
       </c>
       <c r="Z130" s="19">
-        <v>7.2013842091737184</v>
+        <v>6.775453085347265</v>
       </c>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
@@ -31821,10 +31821,10 @@
         <v>18.716196792830647</v>
       </c>
       <c r="Y131" s="19">
-        <v>25.452393096145308</v>
+        <v>25.494703349066828</v>
       </c>
       <c r="Z131" s="19">
-        <v>26.954646440377427</v>
+        <v>27.135797289141863</v>
       </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -32590,10 +32590,10 @@
         <v>15.627149212470329</v>
       </c>
       <c r="Y149" s="19">
-        <v>15.591704190948178</v>
+        <v>15.562528249956841</v>
       </c>
       <c r="Z149" s="19">
-        <v>16.859561193218578</v>
+        <v>16.806054781833595</v>
       </c>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
@@ -32740,10 +32740,10 @@
         <v>17.410247078911691</v>
       </c>
       <c r="Y150" s="19">
-        <v>12.939506801178799</v>
+        <v>12.931484003918806</v>
       </c>
       <c r="Z150" s="19">
-        <v>11.372698437623113</v>
+        <v>11.378450082848516</v>
       </c>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
@@ -32890,10 +32890,10 @@
         <v>18.25662108880806</v>
       </c>
       <c r="Y151" s="19">
-        <v>19.200713405156954</v>
+        <v>19.188808513165025</v>
       </c>
       <c r="Z151" s="19">
-        <v>18.206754328082859</v>
+        <v>18.230056098755608</v>
       </c>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
@@ -33040,10 +33040,10 @@
         <v>12.197063141802191</v>
       </c>
       <c r="Y152" s="19">
-        <v>14.17463669721343</v>
+        <v>14.165848090491151</v>
       </c>
       <c r="Z152" s="19">
-        <v>13.580048206774197</v>
+        <v>13.641611405601624</v>
       </c>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
@@ -33190,10 +33190,10 @@
         <v>5.6318506244641142</v>
       </c>
       <c r="Y153" s="19">
-        <v>5.5946535438065563</v>
+        <v>5.591184727582605</v>
       </c>
       <c r="Z153" s="19">
-        <v>5.6812337599538374</v>
+        <v>5.5130172340687515</v>
       </c>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
@@ -33340,10 +33340,10 @@
         <v>30.877068853543605</v>
       </c>
       <c r="Y154" s="19">
-        <v>32.498785361696086</v>
+        <v>32.56014641488558</v>
       </c>
       <c r="Z154" s="19">
-        <v>34.299704074347417</v>
+        <v>34.4308103968919</v>
       </c>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>

--- a/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-09MAQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2180D-1A60-484B-A874-97990613A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E34E1-20B4-4783-BC11-3ED961BC14EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAQ" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$Z$160</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAQ!$A$1:$AA$160</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,15 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9C7F51BC-3441-449C-80EF-173BCCCC4E66}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -23592,14 +23603,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="71" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="26" width="8.21875" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="10"/>
+    <col min="2" max="27" width="8.21875" style="10" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23614,7 +23625,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23625,7 +23636,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23663,6 +23674,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23742,6 +23754,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23826,7 +23841,9 @@
       <c r="Z12" s="8">
         <v>34369.988174988612</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>35167.655241642889</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23976,7 +23993,9 @@
       <c r="Z13" s="8">
         <v>20436.815164513264</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>21273.033181372237</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24126,7 +24145,9 @@
       <c r="Z14" s="8">
         <v>65044.216692288828</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>91443.410190239811</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -24276,7 +24297,9 @@
       <c r="Z15" s="8">
         <v>34712.466067038935</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="8">
+        <v>35126.175353995954</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -24426,7 +24449,9 @@
       <c r="Z16" s="8">
         <v>15845.929219488527</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="8">
+        <v>15952.361731059738</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -24576,7 +24601,9 @@
       <c r="Z17" s="8">
         <v>63463.198363521995</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="8">
+        <v>65925.285282273311</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -24823,7 +24850,9 @@
       <c r="Z19" s="12">
         <v>233872.61368184013</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="12">
+        <v>264887.92098058393</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -24921,6 +24950,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
     </row>
     <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -25133,7 +25163,7 @@
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25144,7 +25174,7 @@
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25182,6 +25212,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -25261,6 +25292,9 @@
       </c>
       <c r="Z33" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="34" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25345,7 +25379,9 @@
       <c r="Z35" s="8">
         <v>26401.218345692116</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="8">
+        <v>31391.635392424207</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -25495,7 +25531,9 @@
       <c r="Z36" s="8">
         <v>17874.80458516434</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="8">
+        <v>15329.471144163461</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -25645,7 +25683,9 @@
       <c r="Z37" s="8">
         <v>28638.231742390646</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="8">
+        <v>28198.215923143445</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -25795,7 +25835,9 @@
       <c r="Z38" s="8">
         <v>21430.08373956272</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="8">
+        <v>22139.928349778093</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -25945,7 +25987,9 @@
       <c r="Z39" s="8">
         <v>8660.5912946055923</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="8">
+        <v>8167.9986861035022</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
@@ -26095,7 +26139,9 @@
       <c r="Z40" s="8">
         <v>54088.562420376264</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="8">
+        <v>55743.61800939517</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -26192,7 +26238,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="12"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -26342,7 +26388,9 @@
       <c r="Z42" s="12">
         <v>157093.49212779169</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="12">
+        <v>160970.86750500789</v>
+      </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
@@ -26440,6 +26488,7 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
@@ -26652,7 +26701,7 @@
     </row>
     <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26663,7 +26712,7 @@
     </row>
     <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26701,6 +26750,7 @@
       <c r="X55" s="16"/>
       <c r="Y55" s="16"/>
       <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
     </row>
     <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -26778,7 +26828,10 @@
       <c r="Y56" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Z56" s="17"/>
+      <c r="Z56" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA56" s="17"/>
     </row>
     <row r="57" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -26859,8 +26912,10 @@
       <c r="Y58" s="18">
         <v>-7.8747250280163854</v>
       </c>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="9"/>
+      <c r="Z58" s="18">
+        <v>2.3208243849055066</v>
+      </c>
+      <c r="AA58" s="18"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
@@ -27001,8 +27056,10 @@
       <c r="Y59" s="18">
         <v>-16.340498115208632</v>
       </c>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="9"/>
+      <c r="Z59" s="18">
+        <v>4.0917237354624234</v>
+      </c>
+      <c r="AA59" s="18"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
@@ -27143,8 +27200,10 @@
       <c r="Y60" s="18">
         <v>20.170784854812524</v>
       </c>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="9"/>
+      <c r="Z60" s="18">
+        <v>40.586534576686915</v>
+      </c>
+      <c r="AA60" s="18"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
@@ -27285,8 +27344,10 @@
       <c r="Y61" s="18">
         <v>-19.306361711872782</v>
       </c>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="9"/>
+      <c r="Z61" s="18">
+        <v>1.191817620096586</v>
+      </c>
+      <c r="AA61" s="18"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
@@ -27427,8 +27488,10 @@
       <c r="Y62" s="18">
         <v>12.387315973160412</v>
       </c>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="9"/>
+      <c r="Z62" s="18">
+        <v>0.67167100204076746</v>
+      </c>
+      <c r="AA62" s="18"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -27569,8 +27632,10 @@
       <c r="Y63" s="18">
         <v>7.216950984761354</v>
       </c>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="9"/>
+      <c r="Z63" s="18">
+        <v>3.8795506407481923</v>
+      </c>
+      <c r="AA63" s="18"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -27802,8 +27867,10 @@
       <c r="Y65" s="18">
         <v>0.7327822441281171</v>
       </c>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="9"/>
+      <c r="Z65" s="18">
+        <v>13.261624270782278</v>
+      </c>
+      <c r="AA65" s="18"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -27895,6 +27962,7 @@
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
     </row>
     <row r="67" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -28095,7 +28163,7 @@
     </row>
     <row r="72" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28106,7 +28174,7 @@
     </row>
     <row r="75" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28144,6 +28212,7 @@
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
     </row>
     <row r="79" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
@@ -28221,7 +28290,10 @@
       <c r="Y79" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z79" s="6"/>
+      <c r="Z79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA79" s="6"/>
     </row>
     <row r="80" spans="1:90" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -28302,8 +28374,10 @@
       <c r="Y81" s="18">
         <v>9.2720850928056393</v>
       </c>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="9"/>
+      <c r="Z81" s="18">
+        <v>18.902222546659004</v>
+      </c>
+      <c r="AA81" s="18"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AD81" s="9"/>
@@ -28444,8 +28518,10 @@
       <c r="Y82" s="18">
         <v>-10.965494732270713</v>
       </c>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="9"/>
+      <c r="Z82" s="18">
+        <v>-14.239783315524718</v>
+      </c>
+      <c r="AA82" s="18"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AD82" s="9"/>
@@ -28586,8 +28662,10 @@
       <c r="Y83" s="18">
         <v>-3.86896808857054</v>
       </c>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="9"/>
+      <c r="Z83" s="18">
+        <v>-1.536462946474046</v>
+      </c>
+      <c r="AA83" s="18"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
@@ -28728,8 +28806,10 @@
       <c r="Y84" s="18">
         <v>-2.5578849718876313</v>
       </c>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="9"/>
+      <c r="Z84" s="18">
+        <v>3.3123744117943232</v>
+      </c>
+      <c r="AA84" s="18"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
@@ -28870,8 +28950,10 @@
       <c r="Y85" s="18">
         <v>-0.22789913748808033</v>
       </c>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="9"/>
+      <c r="Z85" s="18">
+        <v>-5.6877480040988644</v>
+      </c>
+      <c r="AA85" s="18"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AD85" s="9"/>
@@ -29012,8 +29094,10 @@
       <c r="Y86" s="18">
         <v>7.0001789024866952</v>
       </c>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="9"/>
+      <c r="Z86" s="18">
+        <v>3.0598993853003833</v>
+      </c>
+      <c r="AA86" s="18"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
@@ -29245,8 +29329,10 @@
       <c r="Y88" s="18">
         <v>1.1867409254594889</v>
       </c>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="9"/>
+      <c r="Z88" s="18">
+        <v>2.468196056181668</v>
+      </c>
+      <c r="AA88" s="18"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -29338,6 +29424,7 @@
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
       <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
     </row>
     <row r="90" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
@@ -29539,7 +29626,7 @@
     </row>
     <row r="94" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -29550,7 +29637,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29588,6 +29675,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
@@ -29667,6 +29755,9 @@
       </c>
       <c r="Z101" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA101" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="102" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29751,7 +29842,9 @@
       <c r="Z103" s="19">
         <v>130.18334125703998</v>
       </c>
-      <c r="AA103" s="9"/>
+      <c r="AA103" s="19">
+        <v>112.02874524380452</v>
+      </c>
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
       <c r="AD103" s="9"/>
@@ -29901,7 +29994,9 @@
       <c r="Z104" s="19">
         <v>114.33308301157783</v>
       </c>
-      <c r="AA104" s="9"/>
+      <c r="AA104" s="19">
+        <v>138.77212710936689</v>
+      </c>
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
       <c r="AD104" s="9"/>
@@ -30051,7 +30146,9 @@
       <c r="Z105" s="19">
         <v>227.12371796338812</v>
       </c>
-      <c r="AA105" s="9"/>
+      <c r="AA105" s="19">
+        <v>324.2879281422496</v>
+      </c>
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
       <c r="AD105" s="9"/>
@@ -30201,7 +30298,9 @@
       <c r="Z106" s="19">
         <v>161.98007664783506</v>
       </c>
-      <c r="AA106" s="9"/>
+      <c r="AA106" s="19">
+        <v>158.65532534276707</v>
+      </c>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
@@ -30351,7 +30450,9 @@
       <c r="Z107" s="19">
         <v>182.96590475708575</v>
       </c>
-      <c r="AA107" s="9"/>
+      <c r="AA107" s="19">
+        <v>195.30318679164384</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -30501,7 +30602,9 @@
       <c r="Z108" s="19">
         <v>117.33201165578421</v>
       </c>
-      <c r="AA108" s="9"/>
+      <c r="AA108" s="19">
+        <v>118.26517121863547</v>
+      </c>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AD108" s="9"/>
@@ -30748,7 +30851,9 @@
       <c r="Z110" s="19">
         <v>148.87479456602219</v>
       </c>
-      <c r="AA110" s="9"/>
+      <c r="AA110" s="19">
+        <v>164.55643501600881</v>
+      </c>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
@@ -30846,6 +30951,7 @@
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
       <c r="Z111" s="13"/>
+      <c r="AA111" s="13"/>
     </row>
     <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
@@ -30864,7 +30970,7 @@
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30875,7 +30981,7 @@
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30913,6 +31019,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
@@ -30992,6 +31099,9 @@
       </c>
       <c r="Z124" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA124" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="125" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31076,7 +31186,9 @@
       <c r="Z126" s="19">
         <v>14.696029446930234</v>
       </c>
-      <c r="AA126" s="9"/>
+      <c r="AA126" s="19">
+        <v>13.276428427334992</v>
+      </c>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AD126" s="9"/>
@@ -31226,7 +31338,9 @@
       <c r="Z127" s="19">
         <v>8.7384387777508099</v>
       </c>
-      <c r="AA127" s="9"/>
+      <c r="AA127" s="19">
+        <v>8.0309563012997991</v>
+      </c>
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
       <c r="AD127" s="9"/>
@@ -31376,7 +31490,9 @@
       <c r="Z128" s="19">
         <v>27.811814161693537</v>
       </c>
-      <c r="AA128" s="9"/>
+      <c r="AA128" s="19">
+        <v>34.521547774518012</v>
+      </c>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AD128" s="9"/>
@@ -31526,7 +31642,9 @@
       <c r="Z129" s="19">
         <v>14.842467239136306</v>
       </c>
-      <c r="AA129" s="9"/>
+      <c r="AA129" s="19">
+        <v>13.260769016557262</v>
+      </c>
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
       <c r="AD129" s="9"/>
@@ -31676,7 +31794,9 @@
       <c r="Z130" s="19">
         <v>6.775453085347265</v>
       </c>
-      <c r="AA130" s="9"/>
+      <c r="AA130" s="19">
+        <v>6.0223062161558634</v>
+      </c>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
       <c r="AD130" s="9"/>
@@ -31826,7 +31946,9 @@
       <c r="Z131" s="19">
         <v>27.135797289141863</v>
       </c>
-      <c r="AA131" s="9"/>
+      <c r="AA131" s="19">
+        <v>24.887992264134077</v>
+      </c>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AD131" s="9"/>
@@ -32073,7 +32195,9 @@
       <c r="Z133" s="19">
         <v>100</v>
       </c>
-      <c r="AA133" s="9"/>
+      <c r="AA133" s="19">
+        <v>100</v>
+      </c>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AD133" s="9"/>
@@ -32171,6 +32295,7 @@
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
+      <c r="AA134" s="13"/>
     </row>
     <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
@@ -32383,7 +32508,7 @@
     </row>
     <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32394,7 +32519,7 @@
     </row>
     <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32432,6 +32557,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
     </row>
     <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
@@ -32511,6 +32637,9 @@
       </c>
       <c r="Z147" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA147" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="148" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32595,7 +32724,9 @@
       <c r="Z149" s="19">
         <v>16.806054781833595</v>
       </c>
-      <c r="AA149" s="9"/>
+      <c r="AA149" s="19">
+        <v>19.50143891188733</v>
+      </c>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
       <c r="AD149" s="9"/>
@@ -32745,7 +32876,9 @@
       <c r="Z150" s="19">
         <v>11.378450082848516</v>
       </c>
-      <c r="AA150" s="9"/>
+      <c r="AA150" s="19">
+        <v>9.52313383270209</v>
+      </c>
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
       <c r="AD150" s="9"/>
@@ -32895,7 +33028,9 @@
       <c r="Z151" s="19">
         <v>18.230056098755608</v>
       </c>
-      <c r="AA151" s="9"/>
+      <c r="AA151" s="19">
+        <v>17.517589586367972</v>
+      </c>
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
       <c r="AD151" s="9"/>
@@ -33045,7 +33180,9 @@
       <c r="Z152" s="19">
         <v>13.641611405601624</v>
       </c>
-      <c r="AA152" s="9"/>
+      <c r="AA152" s="19">
+        <v>13.753997038681117</v>
+      </c>
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
       <c r="AD152" s="9"/>
@@ -33195,7 +33332,9 @@
       <c r="Z153" s="19">
         <v>5.5130172340687515</v>
       </c>
-      <c r="AA153" s="9"/>
+      <c r="AA153" s="19">
+        <v>5.0742092732086395</v>
+      </c>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
       <c r="AD153" s="9"/>
@@ -33345,7 +33484,9 @@
       <c r="Z154" s="19">
         <v>34.4308103968919</v>
       </c>
-      <c r="AA154" s="9"/>
+      <c r="AA154" s="19">
+        <v>34.629631357152846</v>
+      </c>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
       <c r="AD154" s="9"/>
@@ -33592,7 +33733,9 @@
       <c r="Z156" s="19">
         <v>100</v>
       </c>
-      <c r="AA156" s="9"/>
+      <c r="AA156" s="19">
+        <v>100</v>
+      </c>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
@@ -33690,6 +33833,7 @@
       <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
+      <c r="AA157" s="13"/>
     </row>
     <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
@@ -33898,9 +34042,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="46" max="25" man="1"/>
-    <brk id="92" max="25" man="1"/>
-    <brk id="114" max="25" man="1"/>
+    <brk id="46" max="26" man="1"/>
+    <brk id="92" max="26" man="1"/>
+    <brk id="114" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>